--- a/MetaPatchM/process file/Added Reactions.xlsx
+++ b/MetaPatchM/process file/Added Reactions.xlsx
@@ -13,7 +13,3757 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1875">
+  <si>
+    <t>AOT13_RS00265</t>
+  </si>
+  <si>
+    <t>AOT13_RS00545</t>
+  </si>
+  <si>
+    <t>AOT13_RS00795</t>
+  </si>
+  <si>
+    <t>AOT13_RS01060</t>
+  </si>
+  <si>
+    <t>AOT13_RS01560</t>
+  </si>
+  <si>
+    <t>AOT13_RS01915</t>
+  </si>
+  <si>
+    <t>AOT13_RS02235</t>
+  </si>
+  <si>
+    <t>AOT13_RS02255</t>
+  </si>
+  <si>
+    <t>AOT13_RS02280</t>
+  </si>
+  <si>
+    <t>AOT13_RS02305</t>
+  </si>
+  <si>
+    <t>AOT13_RS02520</t>
+  </si>
+  <si>
+    <t>AOT13_RS02530</t>
+  </si>
+  <si>
+    <t>AOT13_RS02645</t>
+  </si>
+  <si>
+    <t>AOT13_RS02795</t>
+  </si>
+  <si>
+    <t>AOT13_RS02870</t>
+  </si>
+  <si>
+    <t>AOT13_RS03000</t>
+  </si>
+  <si>
+    <t>AOT13_RS03095</t>
+  </si>
+  <si>
+    <t>AOT13_RS03120</t>
+  </si>
+  <si>
+    <t>AOT13_RS03330</t>
+  </si>
+  <si>
+    <t>AOT13_RS03470</t>
+  </si>
+  <si>
+    <t>AOT13_RS03675</t>
+  </si>
+  <si>
+    <t>AOT13_RS03970</t>
+  </si>
+  <si>
+    <t>AOT13_RS03980</t>
+  </si>
+  <si>
+    <t>AOT13_RS04800</t>
+  </si>
+  <si>
+    <t>AOT13_RS05130</t>
+  </si>
+  <si>
+    <t>AOT13_RS05445</t>
+  </si>
+  <si>
+    <t>AOT13_RS05660</t>
+  </si>
+  <si>
+    <t>AOT13_RS06315</t>
+  </si>
+  <si>
+    <t>AOT13_RS06780</t>
+  </si>
+  <si>
+    <t>AOT13_RS06900</t>
+  </si>
+  <si>
+    <t>AOT13_RS07360</t>
+  </si>
+  <si>
+    <t>AOT13_RS07905</t>
+  </si>
+  <si>
+    <t>AOT13_RS07925</t>
+  </si>
+  <si>
+    <t>AOT13_RS08050</t>
+  </si>
+  <si>
+    <t>AOT13_RS08120</t>
+  </si>
+  <si>
+    <t>AOT13_RS08285</t>
+  </si>
+  <si>
+    <t>AOT13_RS08360</t>
+  </si>
+  <si>
+    <t>AOT13_RS08430</t>
+  </si>
+  <si>
+    <t>AOT13_RS08580</t>
+  </si>
+  <si>
+    <t>AOT13_RS08710</t>
+  </si>
+  <si>
+    <t>AOT13_RS08715</t>
+  </si>
+  <si>
+    <t>AOT13_RS08720</t>
+  </si>
+  <si>
+    <t>AOT13_RS08840</t>
+  </si>
+  <si>
+    <t>AOT13_RS08855</t>
+  </si>
+  <si>
+    <t>AOT13_RS08860</t>
+  </si>
+  <si>
+    <t>AOT13_RS08950</t>
+  </si>
+  <si>
+    <t>AOT13_RS09005</t>
+  </si>
+  <si>
+    <t>AOT13_RS09055</t>
+  </si>
+  <si>
+    <t>AOT13_RS09205</t>
+  </si>
+  <si>
+    <t>AOT13_RS09210</t>
+  </si>
+  <si>
+    <t>AOT13_RS09255</t>
+  </si>
+  <si>
+    <t>AOT13_RS09275</t>
+  </si>
+  <si>
+    <t>AOT13_RS09290</t>
+  </si>
+  <si>
+    <t>AOT13_RS09330</t>
+  </si>
+  <si>
+    <t>AOT13_RS09345</t>
+  </si>
+  <si>
+    <t>AOT13_RS09515</t>
+  </si>
+  <si>
+    <t>AOT13_RS09520</t>
+  </si>
+  <si>
+    <t>AOT13_RS09670</t>
+  </si>
+  <si>
+    <t>AOT13_RS09740</t>
+  </si>
+  <si>
+    <t>AOT13_RS10505</t>
+  </si>
+  <si>
+    <t>AOT13_RS10515</t>
+  </si>
+  <si>
+    <t>AOT13_RS11305</t>
+  </si>
+  <si>
+    <t>AOT13_RS11410</t>
+  </si>
+  <si>
+    <t>AOT13_RS11760</t>
+  </si>
+  <si>
+    <t>AOT13_RS11765</t>
+  </si>
+  <si>
+    <t>AOT13_RS12085</t>
+  </si>
+  <si>
+    <t>AOT13_RS12220</t>
+  </si>
+  <si>
+    <t>AOT13_RS12625</t>
+  </si>
+  <si>
+    <t>AOT13_RS12925</t>
+  </si>
+  <si>
+    <t>AOT13_RS12995</t>
+  </si>
+  <si>
+    <t>AOT13_RS13365</t>
+  </si>
+  <si>
+    <t>AOT13_RS14180</t>
+  </si>
+  <si>
+    <t>AOT13_RS14360</t>
+  </si>
+  <si>
+    <t>AOT13_RS14465</t>
+  </si>
+  <si>
+    <t>AOT13_RS14990</t>
+  </si>
+  <si>
+    <t>AOT13_RS15080</t>
+  </si>
+  <si>
+    <t>AOT13_RS15430</t>
+  </si>
+  <si>
+    <t>AOT13_RS15440</t>
+  </si>
+  <si>
+    <t>AOT13_RS15460</t>
+  </si>
+  <si>
+    <t>AOT13_RS15475</t>
+  </si>
+  <si>
+    <t>AOT13_RS15590</t>
+  </si>
+  <si>
+    <t>AOT13_RS15620</t>
+  </si>
+  <si>
+    <t>AOT13_RS16125</t>
+  </si>
+  <si>
+    <t>AOT13_RS16135</t>
+  </si>
+  <si>
+    <t>AOT13_RS16230</t>
+  </si>
+  <si>
+    <t>AOT13_RS16235</t>
+  </si>
+  <si>
+    <t>AOT13_RS16395</t>
+  </si>
+  <si>
+    <t>AOT13_RS16435</t>
+  </si>
+  <si>
+    <t>AOT13_RS16465</t>
+  </si>
+  <si>
+    <t>AOT13_RS16545</t>
+  </si>
+  <si>
+    <t>AOT13_RS16715</t>
+  </si>
+  <si>
+    <t>AOT13_RS16720</t>
+  </si>
+  <si>
+    <t>AOT13_RS16785</t>
+  </si>
+  <si>
+    <t>AOT13_RS16995</t>
+  </si>
+  <si>
+    <t>AOT13_RS17000</t>
+  </si>
+  <si>
+    <t>AOT13_RS17045</t>
+  </si>
+  <si>
+    <t>AOT13_RS17255</t>
+  </si>
+  <si>
+    <t>AOT13_RS17335</t>
+  </si>
+  <si>
+    <t>AOT13_RS17350</t>
+  </si>
+  <si>
+    <t>AOT13_RS17395</t>
+  </si>
+  <si>
+    <t>AOT13_RS17645</t>
+  </si>
+  <si>
+    <t>AOT13_RS17720</t>
+  </si>
+  <si>
+    <t>AOT13_RS17785</t>
+  </si>
+  <si>
+    <t>AOT13_RS17880</t>
+  </si>
+  <si>
+    <t>AOT13_RS17930</t>
+  </si>
+  <si>
+    <t>AOT13_RS17960</t>
+  </si>
+  <si>
+    <t>AOT13_RS18010</t>
+  </si>
+  <si>
+    <t>AOT13_RS18015</t>
+  </si>
+  <si>
+    <t>AOT13_RS18195</t>
+  </si>
+  <si>
+    <t>AOT13_RS18275</t>
+  </si>
+  <si>
+    <t>AOT13_RS18360</t>
+  </si>
+  <si>
+    <t>AOT13_RS18425</t>
+  </si>
+  <si>
+    <t>AOT13_RS18530</t>
+  </si>
+  <si>
+    <t>AOT13_RS17705</t>
+  </si>
+  <si>
+    <t>AOT13_RS05420</t>
+  </si>
+  <si>
+    <t>AOT13_RS17400</t>
+  </si>
+  <si>
+    <t>AOT13_RS12370</t>
+  </si>
+  <si>
+    <t>AOT13_RS02855</t>
+  </si>
+  <si>
+    <t>AOT13_RS01820</t>
+  </si>
+  <si>
+    <t>AOT13_RS02560</t>
+  </si>
+  <si>
+    <t>AOT13_RS11870</t>
+  </si>
+  <si>
+    <t>AOT13_RS16915</t>
+  </si>
+  <si>
+    <t>AOT13_RS17680</t>
+  </si>
+  <si>
+    <t>AOT13_RS18120</t>
+  </si>
+  <si>
+    <t>AOT13_RS18565</t>
+  </si>
+  <si>
+    <t>AOT13_RS04545</t>
+  </si>
+  <si>
+    <t>AOT13_RS04600</t>
+  </si>
+  <si>
+    <t>AOT13_RS04785</t>
+  </si>
+  <si>
+    <t>AOT13_RS09285</t>
+  </si>
+  <si>
+    <t>AOT13_RS11935</t>
+  </si>
+  <si>
+    <t>AOT13_RS01010</t>
+  </si>
+  <si>
+    <t>AOT13_RS03190</t>
+  </si>
+  <si>
+    <t>AOT13_RS04115</t>
+  </si>
+  <si>
+    <t>AOT13_RS09065</t>
+  </si>
+  <si>
+    <t>AOT13_RS16885</t>
+  </si>
+  <si>
+    <t>AOT13_RS05230</t>
+  </si>
+  <si>
+    <t>AOT13_RS05260</t>
+  </si>
+  <si>
+    <t>AOT13_RS07225</t>
+  </si>
+  <si>
+    <t>AOT13_RS07480</t>
+  </si>
+  <si>
+    <t>AOT13_RS15735</t>
+  </si>
+  <si>
+    <t>AOT13_RS01965</t>
+  </si>
+  <si>
+    <t>AOT13_RS09615</t>
+  </si>
+  <si>
+    <t>AOT13_RS04405</t>
+  </si>
+  <si>
+    <t>AOT13_RS08930</t>
+  </si>
+  <si>
+    <t>AOT13_RS06165</t>
+  </si>
+  <si>
+    <t>AOT13_RS17340</t>
+  </si>
+  <si>
+    <t>AOT13_RS08045</t>
+  </si>
+  <si>
+    <t>AOT13_RS18440</t>
+  </si>
+  <si>
+    <t>AOT13_RS00165</t>
+  </si>
+  <si>
+    <t>AOT13_RS03405</t>
+  </si>
+  <si>
+    <t>AOT13_RS02820</t>
+  </si>
+  <si>
+    <t>AOT13_RS01815</t>
+  </si>
+  <si>
+    <t>AOT13_RS09050</t>
+  </si>
+  <si>
+    <t>AOT13_RS05295</t>
+  </si>
+  <si>
+    <t>AOT13_RS14345</t>
+  </si>
+  <si>
+    <t>AOT13_RS03505</t>
+  </si>
+  <si>
+    <t>AOT13_RS03715</t>
+  </si>
+  <si>
+    <t>AOT13_RS18475</t>
+  </si>
+  <si>
+    <t>AOT13_RS00370</t>
+  </si>
+  <si>
+    <t>AOT13_RS04025</t>
+  </si>
+  <si>
+    <t>AOT13_RS13790</t>
+  </si>
+  <si>
+    <t>AOT13_RS18325</t>
+  </si>
+  <si>
+    <t>AOT13_RS04945</t>
+  </si>
+  <si>
+    <t>AOT13_RS18285</t>
+  </si>
+  <si>
+    <t>AOT13_RS17780</t>
+  </si>
+  <si>
+    <t>AOT13_RS09015</t>
+  </si>
+  <si>
+    <t>AOT13_RS10185</t>
+  </si>
+  <si>
+    <t>AOT13_RS10425</t>
+  </si>
+  <si>
+    <t>AOT13_RS07945</t>
+  </si>
+  <si>
+    <t>AOT13_RS17030</t>
+  </si>
+  <si>
+    <t>AOT13_RS08935</t>
+  </si>
+  <si>
+    <t>AOT13_RS14545</t>
+  </si>
+  <si>
+    <t>AOT13_RS01540</t>
+  </si>
+  <si>
+    <t>AOT13_RS04535</t>
+  </si>
+  <si>
+    <t>AOT13_RS01850</t>
+  </si>
+  <si>
+    <t>AOT13_RS09530</t>
+  </si>
+  <si>
+    <t>AOT13_RS02975</t>
+  </si>
+  <si>
+    <t>AOT13_RS08175</t>
+  </si>
+  <si>
+    <t>AOT13_RS01870</t>
+  </si>
+  <si>
+    <t>AOT13_RS15370</t>
+  </si>
+  <si>
+    <t>AOT13_RS13610</t>
+  </si>
+  <si>
+    <t>AOT13_RS08035</t>
+  </si>
+  <si>
+    <t>AOT13_RS00970</t>
+  </si>
+  <si>
+    <t>AOT13_RS03240</t>
+  </si>
+  <si>
+    <t>AOT13_RS18070</t>
+  </si>
+  <si>
+    <t>AOT13_RS07250</t>
+  </si>
+  <si>
+    <t>AOT13_RS14520</t>
+  </si>
+  <si>
+    <t>AOT13_RS05055</t>
+  </si>
+  <si>
+    <t>AOT13_RS11625</t>
+  </si>
+  <si>
+    <t>AOT13_RS00060</t>
+  </si>
+  <si>
+    <t>AOT13_RS19100</t>
+  </si>
+  <si>
+    <t>AOT13_RS18880</t>
+  </si>
+  <si>
+    <t>AOT13_RS05915</t>
+  </si>
+  <si>
+    <t>AOT13_RS14735</t>
+  </si>
+  <si>
+    <t>AOT13_RS00095</t>
+  </si>
+  <si>
+    <t>AOT13_RS01685</t>
+  </si>
+  <si>
+    <t>AOT13_RS13470</t>
+  </si>
+  <si>
+    <t>AOT13_RS11455</t>
+  </si>
+  <si>
+    <t>AOT13_RS05345</t>
+  </si>
+  <si>
+    <t>AOT13_RS00895</t>
+  </si>
+  <si>
+    <t>AOT13_RS06660</t>
+  </si>
+  <si>
+    <t>AOT13_RS09625</t>
+  </si>
+  <si>
+    <t>AOT13_RS14550</t>
+  </si>
+  <si>
+    <t>AOT13_RS01970</t>
+  </si>
+  <si>
+    <t>AOT13_RS18460</t>
+  </si>
+  <si>
+    <t>AOT13_RS01715</t>
+  </si>
+  <si>
+    <t>AOT13_RS05320</t>
+  </si>
+  <si>
+    <t>AOT13_RS16860</t>
+  </si>
+  <si>
+    <t>AOT13_RS08425</t>
+  </si>
+  <si>
+    <t>AOT13_RS11980</t>
+  </si>
+  <si>
+    <t>AOT13_RS18315</t>
+  </si>
+  <si>
+    <t>AOT13_RS02100</t>
+  </si>
+  <si>
+    <t>AOT13_RS13670</t>
+  </si>
+  <si>
+    <t>AOT13_RS14280</t>
+  </si>
+  <si>
+    <t>AOT13_RS16950</t>
+  </si>
+  <si>
+    <t>AOT13_RS19000</t>
+  </si>
+  <si>
+    <t>AOT13_RS13510</t>
+  </si>
+  <si>
+    <t>AOT13_RS14705</t>
+  </si>
+  <si>
+    <t>AOT13_RS15210</t>
+  </si>
+  <si>
+    <t>AOT13_RS07210</t>
+  </si>
+  <si>
+    <t>AOT13_RS10155</t>
+  </si>
+  <si>
+    <t>AOT13_RS07240</t>
+  </si>
+  <si>
+    <t>AOT13_RS13665</t>
+  </si>
+  <si>
+    <t>AOT13_RS04865</t>
+  </si>
+  <si>
+    <t>AOT13_RS10690</t>
+  </si>
+  <si>
+    <t>AOT13_RS03565</t>
+  </si>
+  <si>
+    <t>AOT13_RS16990</t>
+  </si>
+  <si>
+    <t>AOT13_RS17580</t>
+  </si>
+  <si>
+    <t>AOT13_RS16470</t>
+  </si>
+  <si>
+    <t>AOT13_RS17900</t>
+  </si>
+  <si>
+    <t>AOT13_RS01845</t>
+  </si>
+  <si>
+    <t>AOT13_RS08870</t>
+  </si>
+  <si>
+    <t>AOT13_RS13590</t>
+  </si>
+  <si>
+    <t>AOT13_RS17885</t>
+  </si>
+  <si>
+    <t>AOT13_RS17965</t>
+  </si>
+  <si>
+    <t>AOT13_RS12190</t>
+  </si>
+  <si>
+    <t>AOT13_RS15145</t>
+  </si>
+  <si>
+    <t>AOT13_RS02510</t>
+  </si>
+  <si>
+    <t>AOT13_RS18265</t>
+  </si>
+  <si>
+    <t>AOT13_RS00160</t>
+  </si>
+  <si>
+    <t>AOT13_RS13720</t>
+  </si>
+  <si>
+    <t>AOT13_RS01795</t>
+  </si>
+  <si>
+    <t>AOT13_RS05070</t>
+  </si>
+  <si>
+    <t>AOT13_RS15480</t>
+  </si>
+  <si>
+    <t>AOT13_RS12185</t>
+  </si>
+  <si>
+    <t>AOT13_RS09990</t>
+  </si>
+  <si>
+    <t>AOT13_RS15770</t>
+  </si>
+  <si>
+    <t>AOT13_RS13440</t>
+  </si>
+  <si>
+    <t>AOT13_RS13640</t>
+  </si>
+  <si>
+    <t>AOT13_RS10610</t>
+  </si>
+  <si>
+    <t>AOT13_RS03690</t>
+  </si>
+  <si>
+    <t>AOT13_RS07015</t>
+  </si>
+  <si>
+    <t>AOT13_RS06300</t>
+  </si>
+  <si>
+    <t>AOT13_RS03550</t>
+  </si>
+  <si>
+    <t>AOT13_RS12975</t>
+  </si>
+  <si>
+    <t>AOT13_RS14435</t>
+  </si>
+  <si>
+    <t>AOT13_RS11850</t>
+  </si>
+  <si>
+    <t>AOT13_RS10870</t>
+  </si>
+  <si>
+    <t>AOT13_RS15730</t>
+  </si>
+  <si>
+    <t>AOT13_RS08040</t>
+  </si>
+  <si>
+    <t>AOT13_RS03825</t>
+  </si>
+  <si>
+    <t>AOT13_RS03215</t>
+  </si>
+  <si>
+    <t>AOT13_RS10170</t>
+  </si>
+  <si>
+    <t>AOT13_RS12725</t>
+  </si>
+  <si>
+    <t>AOT13_RS16790</t>
+  </si>
+  <si>
+    <t>AOT13_RS01955</t>
+  </si>
+  <si>
+    <t>AOT13_RS06640</t>
+  </si>
+  <si>
+    <t>AOT13_RS02850</t>
+  </si>
+  <si>
+    <t>AOT13_RS03535</t>
+  </si>
+  <si>
+    <t>AOT13_RS09225</t>
+  </si>
+  <si>
+    <t>AOT13_RS05495</t>
+  </si>
+  <si>
+    <t>AOT13_RS08255</t>
+  </si>
+  <si>
+    <t>AOT13_RS11975</t>
+  </si>
+  <si>
+    <t>AOT13_RS11535</t>
+  </si>
+  <si>
+    <t>AOT13_RS10620</t>
+  </si>
+  <si>
+    <t>AOT13_RS05665</t>
+  </si>
+  <si>
+    <t>AOT13_RS05175</t>
+  </si>
+  <si>
+    <t>AOT13_RS18760</t>
+  </si>
+  <si>
+    <t>AOT13_RS12330</t>
+  </si>
+  <si>
+    <t>AOT13_RS04105</t>
+  </si>
+  <si>
+    <t>AOT13_RS01670</t>
+  </si>
+  <si>
+    <t>AOT13_RS09920</t>
+  </si>
+  <si>
+    <t>AOT13_RS18730</t>
+  </si>
+  <si>
+    <t>AOT13_RS15970</t>
+  </si>
+  <si>
+    <t>AOT13_RS18765</t>
+  </si>
+  <si>
+    <t>AOT13_RS04175</t>
+  </si>
+  <si>
+    <t>AOT13_RS00090</t>
+  </si>
+  <si>
+    <t>AOT13_RS15055</t>
+  </si>
+  <si>
+    <t>AOT13_RS03345</t>
+  </si>
+  <si>
+    <t>AOT13_RS08590</t>
+  </si>
+  <si>
+    <t>AOT13_RS09555</t>
+  </si>
+  <si>
+    <t>AOT13_RS14045</t>
+  </si>
+  <si>
+    <t>AOT13_RS03315</t>
+  </si>
+  <si>
+    <t>AOT13_RS01110</t>
+  </si>
+  <si>
+    <t>AOT13_RS04820</t>
+  </si>
+  <si>
+    <t>AOT13_RS02215</t>
+  </si>
+  <si>
+    <t>AOT13_RS06560</t>
+  </si>
+  <si>
+    <t>AOT13_RS16845</t>
+  </si>
+  <si>
+    <t>AOT13_RS14940</t>
+  </si>
+  <si>
+    <t>AOT13_RS15015</t>
+  </si>
+  <si>
+    <t>AOT13_RS09485</t>
+  </si>
+  <si>
+    <t>AOT13_RS14245</t>
+  </si>
+  <si>
+    <t>AOT13_RS07050</t>
+  </si>
+  <si>
+    <t>AOT13_RS09665</t>
+  </si>
+  <si>
+    <t>AOT13_RS12090</t>
+  </si>
+  <si>
+    <t>AOT13_RS04150</t>
+  </si>
+  <si>
+    <t>AOT13_RS18365</t>
+  </si>
+  <si>
+    <t>AOT13_RS08880</t>
+  </si>
+  <si>
+    <t>AOT13_RS05390</t>
+  </si>
+  <si>
+    <t>AOT13_RS13605</t>
+  </si>
+  <si>
+    <t>AOT13_RS08125</t>
+  </si>
+  <si>
+    <t>AOT13_RS10745</t>
+  </si>
+  <si>
+    <t>AOT13_RS11580</t>
+  </si>
+  <si>
+    <t>AOT13_RS12135</t>
+  </si>
+  <si>
+    <t>AOT13_RS12910</t>
+  </si>
+  <si>
+    <t>2.8.1.8</t>
+  </si>
+  <si>
+    <t>1.14.14.9</t>
+  </si>
+  <si>
+    <t>3.4.21.92</t>
+  </si>
+  <si>
+    <t>2.6.1.92</t>
+  </si>
+  <si>
+    <t>2.4.1.187</t>
+  </si>
+  <si>
+    <t>3.4.21.62</t>
+  </si>
+  <si>
+    <t>3.5.1.28</t>
+  </si>
+  <si>
+    <t>5.4.99.12</t>
+  </si>
+  <si>
+    <t>2.7.7.6</t>
+  </si>
+  <si>
+    <t>3.4.11.18</t>
+  </si>
+  <si>
+    <t>6.1.1.16</t>
+  </si>
+  <si>
+    <t>6.1.1.17</t>
+  </si>
+  <si>
+    <t>6.1.1.6</t>
+  </si>
+  <si>
+    <t>3.1.1.29</t>
+  </si>
+  <si>
+    <t>6.1.1.10</t>
+  </si>
+  <si>
+    <t>6.1.1.11</t>
+  </si>
+  <si>
+    <t>3.1.26.5</t>
+  </si>
+  <si>
+    <t>2.1.1.170</t>
+  </si>
+  <si>
+    <t>1.97.1.4</t>
+  </si>
+  <si>
+    <t>3.2.2.27</t>
+  </si>
+  <si>
+    <t>2.7.1.21</t>
+  </si>
+  <si>
+    <t>3.1.3.48</t>
+  </si>
+  <si>
+    <t>2.7.7.9</t>
+  </si>
+  <si>
+    <t>6.5.1.2</t>
+  </si>
+  <si>
+    <t>5.1.3.32</t>
+  </si>
+  <si>
+    <t>1.17.1.4</t>
+  </si>
+  <si>
+    <t>3.5.1.104</t>
+  </si>
+  <si>
+    <t>1.6.5.2</t>
+  </si>
+  <si>
+    <t>5.2.1.8</t>
+  </si>
+  <si>
+    <t>3.4.21.89</t>
+  </si>
+  <si>
+    <t>6.1.1.2</t>
+  </si>
+  <si>
+    <t>2.1.1.63</t>
+  </si>
+  <si>
+    <t>5.3.1.23</t>
+  </si>
+  <si>
+    <t>1.7.1.13</t>
+  </si>
+  <si>
+    <t>2.7.3.9</t>
+  </si>
+  <si>
+    <t>3.5.1.88</t>
+  </si>
+  <si>
+    <t>3.1.3.25</t>
+  </si>
+  <si>
+    <t>2.5.1.141</t>
+  </si>
+  <si>
+    <t>2.1.1.199</t>
+  </si>
+  <si>
+    <t>6.1.1.5</t>
+  </si>
+  <si>
+    <t>3.4.23.36</t>
+  </si>
+  <si>
+    <t>5.4.99.23</t>
+  </si>
+  <si>
+    <t>2.7.7.6</t>
+  </si>
+  <si>
+    <t>3.5.1.88</t>
+  </si>
+  <si>
+    <t>2.1.2.9</t>
+  </si>
+  <si>
+    <t>3.1.26.3</t>
+  </si>
+  <si>
+    <t>3.4.21.89</t>
+  </si>
+  <si>
+    <t>2.1.1.74</t>
+  </si>
+  <si>
+    <t>3.1.1.61</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.7.4.22</t>
+  </si>
+  <si>
+    <t>1.1.1.267</t>
+  </si>
+  <si>
+    <t>2.7.7.7</t>
+  </si>
+  <si>
+    <t>5.4.99.25</t>
+  </si>
+  <si>
+    <t>2.7.7.8</t>
+  </si>
+  <si>
+    <t>2.1.1.72</t>
+  </si>
+  <si>
+    <t>2.5.1.75</t>
+  </si>
+  <si>
+    <t>3.4.21.88</t>
+  </si>
+  <si>
+    <t>3.1.4.46</t>
+  </si>
+  <si>
+    <t>1.14.11.17</t>
+  </si>
+  <si>
+    <t>3.5.1.9</t>
+  </si>
+  <si>
+    <t>3.4.19.3</t>
+  </si>
+  <si>
+    <t>3.4.11.18</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>1.12.99.6</t>
+  </si>
+  <si>
+    <t>3.4.11.4</t>
+  </si>
+  <si>
+    <t>1.8.4.11</t>
+  </si>
+  <si>
+    <t>1.20.4.4</t>
+  </si>
+  <si>
+    <t>4.1.3.39</t>
+  </si>
+  <si>
+    <t>3.4.23.51</t>
+  </si>
+  <si>
+    <t>3.4.17.19</t>
+  </si>
+  <si>
+    <t>3.5.1.4</t>
+  </si>
+  <si>
+    <t>4.1.3.43</t>
+  </si>
+  <si>
+    <t>6.2.1.30</t>
+  </si>
+  <si>
+    <t>1.2.1.41</t>
+  </si>
+  <si>
+    <t>4.2.99.18</t>
+  </si>
+  <si>
+    <t>6.1.1.22</t>
+  </si>
+  <si>
+    <t>4.1.1.11</t>
+  </si>
+  <si>
+    <t>6.3.4.15</t>
+  </si>
+  <si>
+    <t>4.1.1.48</t>
+  </si>
+  <si>
+    <t>2.1.1.80</t>
+  </si>
+  <si>
+    <t>2.7.11.1</t>
+  </si>
+  <si>
+    <t>3.4.16.4</t>
+  </si>
+  <si>
+    <t>1.6.99.1</t>
+  </si>
+  <si>
+    <t>3.1.26.11</t>
+  </si>
+  <si>
+    <t>3.1.4.46</t>
+  </si>
+  <si>
+    <t>3.4.21.116</t>
+  </si>
+  <si>
+    <t>3.1.11.6</t>
+  </si>
+  <si>
+    <t>3.4.13.9</t>
+  </si>
+  <si>
+    <t>3.4.19.11</t>
+  </si>
+  <si>
+    <t>2.7.1.2</t>
+  </si>
+  <si>
+    <t>1.15.1.1</t>
+  </si>
+  <si>
+    <t>2.1.1.193</t>
+  </si>
+  <si>
+    <t>2.1.1.104</t>
+  </si>
+  <si>
+    <t>3.4.24.78</t>
+  </si>
+  <si>
+    <t>6.1.1.7</t>
+  </si>
+  <si>
+    <t>6.1.1.12</t>
+  </si>
+  <si>
+    <t>3.1.1.96</t>
+  </si>
+  <si>
+    <t>2.4.2.29</t>
+  </si>
+  <si>
+    <t>6.1.1.9</t>
+  </si>
+  <si>
+    <t>5.2.1.8</t>
+  </si>
+  <si>
+    <t>2.7.7.56</t>
+  </si>
+  <si>
+    <t>1.14.14.5</t>
+  </si>
+  <si>
+    <t>6.2.1.3</t>
+  </si>
+  <si>
+    <t>3.1.26.4</t>
+  </si>
+  <si>
+    <t>6.1.1.20</t>
+  </si>
+  <si>
+    <t>2.7.7.7</t>
+  </si>
+  <si>
+    <t>2.7.2.1</t>
+  </si>
+  <si>
+    <t>6.1.1.1</t>
+  </si>
+  <si>
+    <t>6.1.1.20</t>
+  </si>
+  <si>
+    <t>6.1.1.4</t>
+  </si>
+  <si>
+    <t>3.4.21.53</t>
+  </si>
+  <si>
+    <t>1.4.1.18</t>
+  </si>
+  <si>
+    <t>2.4.99.17</t>
+  </si>
+  <si>
+    <t>3.5.5.1</t>
+  </si>
+  <si>
+    <t>3.1.26.8</t>
+  </si>
+  <si>
+    <t>5.4.99.62</t>
+  </si>
+  <si>
+    <t>2.7.14.1</t>
+  </si>
+  <si>
+    <t>4.1.3.17</t>
+  </si>
+  <si>
+    <t>2.7.11.32</t>
+  </si>
+  <si>
+    <t>2.5.1.61</t>
+  </si>
+  <si>
+    <t>3.2.2.23</t>
+  </si>
+  <si>
+    <t>4.2.3.130</t>
+  </si>
+  <si>
+    <t>4.6.1.17</t>
+  </si>
+  <si>
+    <t>5.6.1.7</t>
+  </si>
+  <si>
+    <t>2.5.1.n9</t>
+  </si>
+  <si>
+    <t>6.1.1.15</t>
+  </si>
+  <si>
+    <t>2.1.1.271</t>
+  </si>
+  <si>
+    <t>7.4.2.8</t>
+  </si>
+  <si>
+    <t>3.1.4.59</t>
+  </si>
+  <si>
+    <t>2.4.1.339</t>
+  </si>
+  <si>
+    <t>3.4.25.2</t>
+  </si>
+  <si>
+    <t>2.1.1.217</t>
+  </si>
+  <si>
+    <t>7.6.2.11</t>
+  </si>
+  <si>
+    <t>2.7.1.208</t>
+  </si>
+  <si>
+    <t>4.1.99.22</t>
+  </si>
+  <si>
+    <t>3.6.1.17</t>
+  </si>
+  <si>
+    <t>2.7.4.25</t>
+  </si>
+  <si>
+    <t>1.18.1.2</t>
+  </si>
+  <si>
+    <t>1.14.14.35</t>
+  </si>
+  <si>
+    <t>2.7.8.7</t>
+  </si>
+  <si>
+    <t>2.3.1.274</t>
+  </si>
+  <si>
+    <t>2.1.1.207</t>
+  </si>
+  <si>
+    <t>6.1.1.21</t>
+  </si>
+  <si>
+    <t>4.3.99.3</t>
+  </si>
+  <si>
+    <t>3.6.1.73</t>
+  </si>
+  <si>
+    <t>1.18.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.93</t>
+  </si>
+  <si>
+    <t>3.5.99.10</t>
+  </si>
+  <si>
+    <t>7.5.2.7</t>
+  </si>
+  <si>
+    <t>5.6.2.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>4.3.1.7</t>
+  </si>
+  <si>
+    <t>2.3.1.204</t>
+  </si>
+  <si>
+    <t>2.1.1.297</t>
+  </si>
+  <si>
+    <t>3.2.1.41</t>
+  </si>
+  <si>
+    <t>7.4.2.11</t>
+  </si>
+  <si>
+    <t>1.5.1.45</t>
+  </si>
+  <si>
+    <t>7.2.2.21</t>
+  </si>
+  <si>
+    <t>2.8.1.4</t>
+  </si>
+  <si>
+    <t>6.3.5.7</t>
+  </si>
+  <si>
+    <t>1.11.1.24</t>
+  </si>
+  <si>
+    <t>3.6.1.66</t>
+  </si>
+  <si>
+    <t>3.1.26.4</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.3.1.286</t>
+  </si>
+  <si>
+    <t>5.3.2.5</t>
+  </si>
+  <si>
+    <t>3.6.5.n1</t>
+  </si>
+  <si>
+    <t>2.3.1.39</t>
+  </si>
+  <si>
+    <t>4.2.1.136</t>
+  </si>
+  <si>
+    <t>7.4.2.8</t>
+  </si>
+  <si>
+    <t>2.3.1.234</t>
+  </si>
+  <si>
+    <t>3.4.14.13</t>
+  </si>
+  <si>
+    <t>2.8.4.3</t>
+  </si>
+  <si>
+    <t>3.5.4.33</t>
+  </si>
+  <si>
+    <t>3.1.3.71</t>
+  </si>
+  <si>
+    <t>3.5.1.87</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>4.1.1.2</t>
+  </si>
+  <si>
+    <t>6.3.4.20</t>
+  </si>
+  <si>
+    <t>1.13.11.24</t>
+  </si>
+  <si>
+    <t>2.1.1.177</t>
+  </si>
+  <si>
+    <t>6.1.1.3</t>
+  </si>
+  <si>
+    <t>2.8.1.12</t>
+  </si>
+  <si>
+    <t>3.5.2.9</t>
+  </si>
+  <si>
+    <t>7.4.2.11</t>
+  </si>
+  <si>
+    <t>1.1.1.192</t>
+  </si>
+  <si>
+    <t>2.8.1.13</t>
+  </si>
+  <si>
+    <t>3.2.2.31</t>
+  </si>
+  <si>
+    <t>7.2.2.16</t>
+  </si>
+  <si>
+    <t>1.15.1.1</t>
+  </si>
+  <si>
+    <t>7.6.2.14</t>
+  </si>
+  <si>
+    <t>2.7.7.7</t>
+  </si>
+  <si>
+    <t>7.5.2.7</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.5.1.145</t>
+  </si>
+  <si>
+    <t>7.6.2.10</t>
+  </si>
+  <si>
+    <t>7.6.2.14</t>
+  </si>
+  <si>
+    <t>7.4.2.11</t>
+  </si>
+  <si>
+    <t>7.2.2.16</t>
+  </si>
+  <si>
+    <t>2.1.1.33</t>
+  </si>
+  <si>
+    <t>7.4.2.11</t>
+  </si>
+  <si>
+    <t>2.7.1.107</t>
+  </si>
+  <si>
+    <t>3.1.21.2</t>
+  </si>
+  <si>
+    <t>1.17.99.9</t>
+  </si>
+  <si>
+    <t>2.1.1.63</t>
+  </si>
+  <si>
+    <t>6.2.1.40</t>
+  </si>
+  <si>
+    <t>1.16.1.10</t>
+  </si>
+  <si>
+    <t>1.7.1.17</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.1.4.59</t>
+  </si>
+  <si>
+    <t>2.3.2.13</t>
+  </si>
+  <si>
+    <t>2.3.1.286</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.5.1.2</t>
+  </si>
+  <si>
+    <t>1.7.2.1</t>
+  </si>
+  <si>
+    <t>1.3.1.84</t>
+  </si>
+  <si>
+    <t>2.10.1.1</t>
+  </si>
+  <si>
+    <t>1.13.11.24</t>
+  </si>
+  <si>
+    <t>2.7.8.7</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>6.1.1.19</t>
+  </si>
+  <si>
+    <t>2.8.4.5</t>
+  </si>
+  <si>
+    <t>3.4.23.43</t>
+  </si>
+  <si>
+    <t>3.1.11.6</t>
+  </si>
+  <si>
+    <t>7.6.2.14</t>
+  </si>
+  <si>
+    <t>5.1.1.20</t>
+  </si>
+  <si>
+    <t>2.1.1.192</t>
+  </si>
+  <si>
+    <t>7.2.2.8</t>
+  </si>
+  <si>
+    <t>1.5.1.38</t>
+  </si>
+  <si>
+    <t>4.2.1.130</t>
+  </si>
+  <si>
+    <t>2.3.1.275</t>
+  </si>
+  <si>
+    <t>2.7.1.205</t>
+  </si>
+  <si>
+    <t>2.1.1.185</t>
+  </si>
+  <si>
+    <t>2.7.7.75</t>
+  </si>
+  <si>
+    <t>1.6.5.9</t>
+  </si>
+  <si>
+    <t>4.3.2.6</t>
+  </si>
+  <si>
+    <t>1.1.1.371</t>
+  </si>
+  <si>
+    <t>1.14.14.10</t>
+  </si>
+  <si>
+    <t>2.7.7.72</t>
+  </si>
+  <si>
+    <t>2.1.1.178</t>
+  </si>
+  <si>
+    <t>3.1.21.5</t>
+  </si>
+  <si>
+    <t>3.5.1.1</t>
+  </si>
+  <si>
+    <t>3.13.1.5</t>
+  </si>
+  <si>
+    <t>1.5.1.38</t>
+  </si>
+  <si>
+    <t>1.3.1.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.2.1.135</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.4.16.4</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>6.2.1.25</t>
+  </si>
+  <si>
+    <t>5.6.2.1</t>
+  </si>
+  <si>
+    <t>1.1.99.14</t>
+  </si>
+  <si>
+    <t>2.3.1.n4</t>
+  </si>
+  <si>
+    <t>4.1.2.50</t>
+  </si>
+  <si>
+    <t>1.12.98.3</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.7.1.180</t>
+  </si>
+  <si>
+    <t>3.1.21.4</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.1.1.187</t>
+  </si>
+  <si>
+    <t>7.4.2.1</t>
+  </si>
+  <si>
+    <t>2.1.1.182</t>
+  </si>
+  <si>
+    <t>5.3.2.6</t>
+  </si>
+  <si>
+    <t>3.5.1.44</t>
+  </si>
+  <si>
+    <t>1.1.99.14</t>
+  </si>
+  <si>
+    <t>1.11.1.24</t>
+  </si>
+  <si>
+    <t>2.1.1.n11</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>1.3.98.6</t>
+  </si>
+  <si>
+    <t>3.2.2.21</t>
+  </si>
+  <si>
+    <t>3.1.12.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.5.1.18</t>
+  </si>
+  <si>
+    <t>3.1.1.106</t>
+  </si>
+  <si>
+    <t>1.5.1.38</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.4.1.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.4.1.352</t>
+  </si>
+  <si>
+    <t>4.4.1.13</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.1.1.34</t>
+  </si>
+  <si>
+    <t>3.4.16.4</t>
+  </si>
+  <si>
+    <t>6.4.1.6</t>
+  </si>
+  <si>
+    <t>2.7.11.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>4.2.1.115</t>
+  </si>
+  <si>
+    <t>7.6.2.2</t>
+  </si>
+  <si>
+    <t>3.5.1.104</t>
+  </si>
+  <si>
+    <t>3.1.1.114</t>
+  </si>
+  <si>
+    <t>7.2.2.20</t>
+  </si>
+  <si>
+    <t>2.3.1.174</t>
+  </si>
+  <si>
+    <t>7.5.2.3</t>
+  </si>
+  <si>
+    <t>3.1.3.60</t>
+  </si>
+  <si>
+    <t>1.1.99.14</t>
+  </si>
+  <si>
+    <t>1.1.1.343</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>1.12.99.6</t>
+  </si>
+  <si>
+    <t>3.5.1.28</t>
+  </si>
+  <si>
+    <t>3.4.16.4</t>
+  </si>
+  <si>
+    <t>2.7.11.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.5.1.104</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>7.2.2.11</t>
+  </si>
+  <si>
+    <t>5.1.3.3</t>
+  </si>
+  <si>
+    <t>2.7.9.3</t>
+  </si>
+  <si>
+    <t>2.1.1.137</t>
+  </si>
+  <si>
+    <t>AOT13_RS00265</t>
+  </si>
+  <si>
+    <t>AOT13_RS00545</t>
+  </si>
+  <si>
+    <t>AOT13_RS00795</t>
+  </si>
+  <si>
+    <t>AOT13_RS01060</t>
+  </si>
+  <si>
+    <t>AOT13_RS01560</t>
+  </si>
+  <si>
+    <t>AOT13_RS01915</t>
+  </si>
+  <si>
+    <t>AOT13_RS02235</t>
+  </si>
+  <si>
+    <t>AOT13_RS02255</t>
+  </si>
+  <si>
+    <t>AOT13_RS02280</t>
+  </si>
+  <si>
+    <t>AOT13_RS02305</t>
+  </si>
+  <si>
+    <t>AOT13_RS02520</t>
+  </si>
+  <si>
+    <t>AOT13_RS02530</t>
+  </si>
+  <si>
+    <t>AOT13_RS02645</t>
+  </si>
+  <si>
+    <t>AOT13_RS02795</t>
+  </si>
+  <si>
+    <t>AOT13_RS02870</t>
+  </si>
+  <si>
+    <t>AOT13_RS03000</t>
+  </si>
+  <si>
+    <t>AOT13_RS03095</t>
+  </si>
+  <si>
+    <t>AOT13_RS03120</t>
+  </si>
+  <si>
+    <t>AOT13_RS03330</t>
+  </si>
+  <si>
+    <t>AOT13_RS03470</t>
+  </si>
+  <si>
+    <t>AOT13_RS03675</t>
+  </si>
+  <si>
+    <t>AOT13_RS03970</t>
+  </si>
+  <si>
+    <t>AOT13_RS03980</t>
+  </si>
+  <si>
+    <t>AOT13_RS04800</t>
+  </si>
+  <si>
+    <t>AOT13_RS05130</t>
+  </si>
+  <si>
+    <t>AOT13_RS05445</t>
+  </si>
+  <si>
+    <t>AOT13_RS05660</t>
+  </si>
+  <si>
+    <t>AOT13_RS06315</t>
+  </si>
+  <si>
+    <t>AOT13_RS06780</t>
+  </si>
+  <si>
+    <t>AOT13_RS06900</t>
+  </si>
+  <si>
+    <t>AOT13_RS07360</t>
+  </si>
+  <si>
+    <t>AOT13_RS07905</t>
+  </si>
+  <si>
+    <t>AOT13_RS07925</t>
+  </si>
+  <si>
+    <t>AOT13_RS08050</t>
+  </si>
+  <si>
+    <t>AOT13_RS08120</t>
+  </si>
+  <si>
+    <t>AOT13_RS08285</t>
+  </si>
+  <si>
+    <t>AOT13_RS08360</t>
+  </si>
+  <si>
+    <t>AOT13_RS08430</t>
+  </si>
+  <si>
+    <t>AOT13_RS08580</t>
+  </si>
+  <si>
+    <t>AOT13_RS08710</t>
+  </si>
+  <si>
+    <t>AOT13_RS08715</t>
+  </si>
+  <si>
+    <t>AOT13_RS08720</t>
+  </si>
+  <si>
+    <t>AOT13_RS08840</t>
+  </si>
+  <si>
+    <t>AOT13_RS08855</t>
+  </si>
+  <si>
+    <t>AOT13_RS08860</t>
+  </si>
+  <si>
+    <t>AOT13_RS08950</t>
+  </si>
+  <si>
+    <t>AOT13_RS09005</t>
+  </si>
+  <si>
+    <t>AOT13_RS09055</t>
+  </si>
+  <si>
+    <t>AOT13_RS09205</t>
+  </si>
+  <si>
+    <t>AOT13_RS09210</t>
+  </si>
+  <si>
+    <t>AOT13_RS09255</t>
+  </si>
+  <si>
+    <t>AOT13_RS09275</t>
+  </si>
+  <si>
+    <t>AOT13_RS09290</t>
+  </si>
+  <si>
+    <t>AOT13_RS09330</t>
+  </si>
+  <si>
+    <t>AOT13_RS09345</t>
+  </si>
+  <si>
+    <t>AOT13_RS09515</t>
+  </si>
+  <si>
+    <t>AOT13_RS09520</t>
+  </si>
+  <si>
+    <t>AOT13_RS09670</t>
+  </si>
+  <si>
+    <t>AOT13_RS09740</t>
+  </si>
+  <si>
+    <t>AOT13_RS10505</t>
+  </si>
+  <si>
+    <t>AOT13_RS10515</t>
+  </si>
+  <si>
+    <t>AOT13_RS11305</t>
+  </si>
+  <si>
+    <t>AOT13_RS11410</t>
+  </si>
+  <si>
+    <t>AOT13_RS11760</t>
+  </si>
+  <si>
+    <t>AOT13_RS11765</t>
+  </si>
+  <si>
+    <t>AOT13_RS12085</t>
+  </si>
+  <si>
+    <t>AOT13_RS12220</t>
+  </si>
+  <si>
+    <t>AOT13_RS12625</t>
+  </si>
+  <si>
+    <t>AOT13_RS12925</t>
+  </si>
+  <si>
+    <t>AOT13_RS12995</t>
+  </si>
+  <si>
+    <t>AOT13_RS13365</t>
+  </si>
+  <si>
+    <t>AOT13_RS14180</t>
+  </si>
+  <si>
+    <t>AOT13_RS14360</t>
+  </si>
+  <si>
+    <t>AOT13_RS14465</t>
+  </si>
+  <si>
+    <t>AOT13_RS14990</t>
+  </si>
+  <si>
+    <t>AOT13_RS15080</t>
+  </si>
+  <si>
+    <t>AOT13_RS15430</t>
+  </si>
+  <si>
+    <t>AOT13_RS15440</t>
+  </si>
+  <si>
+    <t>AOT13_RS15460</t>
+  </si>
+  <si>
+    <t>AOT13_RS15475</t>
+  </si>
+  <si>
+    <t>AOT13_RS15590</t>
+  </si>
+  <si>
+    <t>AOT13_RS15620</t>
+  </si>
+  <si>
+    <t>AOT13_RS16125</t>
+  </si>
+  <si>
+    <t>AOT13_RS16135</t>
+  </si>
+  <si>
+    <t>AOT13_RS16230</t>
+  </si>
+  <si>
+    <t>AOT13_RS16235</t>
+  </si>
+  <si>
+    <t>AOT13_RS16395</t>
+  </si>
+  <si>
+    <t>AOT13_RS16435</t>
+  </si>
+  <si>
+    <t>AOT13_RS16465</t>
+  </si>
+  <si>
+    <t>AOT13_RS16545</t>
+  </si>
+  <si>
+    <t>AOT13_RS16715</t>
+  </si>
+  <si>
+    <t>AOT13_RS16720</t>
+  </si>
+  <si>
+    <t>AOT13_RS16785</t>
+  </si>
+  <si>
+    <t>AOT13_RS16995</t>
+  </si>
+  <si>
+    <t>AOT13_RS17000</t>
+  </si>
+  <si>
+    <t>AOT13_RS17045</t>
+  </si>
+  <si>
+    <t>AOT13_RS17255</t>
+  </si>
+  <si>
+    <t>AOT13_RS17335</t>
+  </si>
+  <si>
+    <t>AOT13_RS17350</t>
+  </si>
+  <si>
+    <t>AOT13_RS17395</t>
+  </si>
+  <si>
+    <t>AOT13_RS17645</t>
+  </si>
+  <si>
+    <t>AOT13_RS17720</t>
+  </si>
+  <si>
+    <t>AOT13_RS17785</t>
+  </si>
+  <si>
+    <t>AOT13_RS17880</t>
+  </si>
+  <si>
+    <t>AOT13_RS17930</t>
+  </si>
+  <si>
+    <t>AOT13_RS17960</t>
+  </si>
+  <si>
+    <t>AOT13_RS18010</t>
+  </si>
+  <si>
+    <t>AOT13_RS18015</t>
+  </si>
+  <si>
+    <t>AOT13_RS18195</t>
+  </si>
+  <si>
+    <t>AOT13_RS18275</t>
+  </si>
+  <si>
+    <t>AOT13_RS18360</t>
+  </si>
+  <si>
+    <t>AOT13_RS18425</t>
+  </si>
+  <si>
+    <t>AOT13_RS18530</t>
+  </si>
+  <si>
+    <t>AOT13_RS17705</t>
+  </si>
+  <si>
+    <t>AOT13_RS05420</t>
+  </si>
+  <si>
+    <t>AOT13_RS17400</t>
+  </si>
+  <si>
+    <t>AOT13_RS12370</t>
+  </si>
+  <si>
+    <t>AOT13_RS02855</t>
+  </si>
+  <si>
+    <t>AOT13_RS01820</t>
+  </si>
+  <si>
+    <t>AOT13_RS02560</t>
+  </si>
+  <si>
+    <t>AOT13_RS11870</t>
+  </si>
+  <si>
+    <t>AOT13_RS16915</t>
+  </si>
+  <si>
+    <t>AOT13_RS17680</t>
+  </si>
+  <si>
+    <t>AOT13_RS18120</t>
+  </si>
+  <si>
+    <t>AOT13_RS18565</t>
+  </si>
+  <si>
+    <t>AOT13_RS04545</t>
+  </si>
+  <si>
+    <t>AOT13_RS04600</t>
+  </si>
+  <si>
+    <t>AOT13_RS04785</t>
+  </si>
+  <si>
+    <t>AOT13_RS09285</t>
+  </si>
+  <si>
+    <t>AOT13_RS11935</t>
+  </si>
+  <si>
+    <t>AOT13_RS01010</t>
+  </si>
+  <si>
+    <t>AOT13_RS03190</t>
+  </si>
+  <si>
+    <t>AOT13_RS04115</t>
+  </si>
+  <si>
+    <t>AOT13_RS09065</t>
+  </si>
+  <si>
+    <t>AOT13_RS16885</t>
+  </si>
+  <si>
+    <t>AOT13_RS05230</t>
+  </si>
+  <si>
+    <t>AOT13_RS05260</t>
+  </si>
+  <si>
+    <t>AOT13_RS07225</t>
+  </si>
+  <si>
+    <t>AOT13_RS07480</t>
+  </si>
+  <si>
+    <t>AOT13_RS15735</t>
+  </si>
+  <si>
+    <t>AOT13_RS01965</t>
+  </si>
+  <si>
+    <t>AOT13_RS09615</t>
+  </si>
+  <si>
+    <t>AOT13_RS04405</t>
+  </si>
+  <si>
+    <t>AOT13_RS08930</t>
+  </si>
+  <si>
+    <t>AOT13_RS06165</t>
+  </si>
+  <si>
+    <t>AOT13_RS17340</t>
+  </si>
+  <si>
+    <t>AOT13_RS08045</t>
+  </si>
+  <si>
+    <t>AOT13_RS18440</t>
+  </si>
+  <si>
+    <t>AOT13_RS00165</t>
+  </si>
+  <si>
+    <t>AOT13_RS03405</t>
+  </si>
+  <si>
+    <t>AOT13_RS02820</t>
+  </si>
+  <si>
+    <t>AOT13_RS01815</t>
+  </si>
+  <si>
+    <t>AOT13_RS09050</t>
+  </si>
+  <si>
+    <t>AOT13_RS05295</t>
+  </si>
+  <si>
+    <t>AOT13_RS14345</t>
+  </si>
+  <si>
+    <t>AOT13_RS03505</t>
+  </si>
+  <si>
+    <t>AOT13_RS03715</t>
+  </si>
+  <si>
+    <t>AOT13_RS18475</t>
+  </si>
+  <si>
+    <t>AOT13_RS00370</t>
+  </si>
+  <si>
+    <t>AOT13_RS04025</t>
+  </si>
+  <si>
+    <t>AOT13_RS13790</t>
+  </si>
+  <si>
+    <t>AOT13_RS18325</t>
+  </si>
+  <si>
+    <t>AOT13_RS04945</t>
+  </si>
+  <si>
+    <t>AOT13_RS18285</t>
+  </si>
+  <si>
+    <t>AOT13_RS17780</t>
+  </si>
+  <si>
+    <t>AOT13_RS09015</t>
+  </si>
+  <si>
+    <t>AOT13_RS10185</t>
+  </si>
+  <si>
+    <t>AOT13_RS10425</t>
+  </si>
+  <si>
+    <t>AOT13_RS07945</t>
+  </si>
+  <si>
+    <t>AOT13_RS17030</t>
+  </si>
+  <si>
+    <t>AOT13_RS08935</t>
+  </si>
+  <si>
+    <t>AOT13_RS14545</t>
+  </si>
+  <si>
+    <t>AOT13_RS01540</t>
+  </si>
+  <si>
+    <t>AOT13_RS04535</t>
+  </si>
+  <si>
+    <t>AOT13_RS01850</t>
+  </si>
+  <si>
+    <t>AOT13_RS09530</t>
+  </si>
+  <si>
+    <t>AOT13_RS02975</t>
+  </si>
+  <si>
+    <t>AOT13_RS08175</t>
+  </si>
+  <si>
+    <t>AOT13_RS01870</t>
+  </si>
+  <si>
+    <t>AOT13_RS15370</t>
+  </si>
+  <si>
+    <t>AOT13_RS13610</t>
+  </si>
+  <si>
+    <t>AOT13_RS08035</t>
+  </si>
+  <si>
+    <t>AOT13_RS00970</t>
+  </si>
+  <si>
+    <t>AOT13_RS03240</t>
+  </si>
+  <si>
+    <t>AOT13_RS18070</t>
+  </si>
+  <si>
+    <t>AOT13_RS07250</t>
+  </si>
+  <si>
+    <t>AOT13_RS14520</t>
+  </si>
+  <si>
+    <t>AOT13_RS05055</t>
+  </si>
+  <si>
+    <t>AOT13_RS11625</t>
+  </si>
+  <si>
+    <t>AOT13_RS00060</t>
+  </si>
+  <si>
+    <t>AOT13_RS19100</t>
+  </si>
+  <si>
+    <t>AOT13_RS18880</t>
+  </si>
+  <si>
+    <t>AOT13_RS05915</t>
+  </si>
+  <si>
+    <t>AOT13_RS14735</t>
+  </si>
+  <si>
+    <t>AOT13_RS00095</t>
+  </si>
+  <si>
+    <t>AOT13_RS01685</t>
+  </si>
+  <si>
+    <t>AOT13_RS13470</t>
+  </si>
+  <si>
+    <t>AOT13_RS11455</t>
+  </si>
+  <si>
+    <t>AOT13_RS05345</t>
+  </si>
+  <si>
+    <t>AOT13_RS00895</t>
+  </si>
+  <si>
+    <t>AOT13_RS06660</t>
+  </si>
+  <si>
+    <t>AOT13_RS09625</t>
+  </si>
+  <si>
+    <t>AOT13_RS14550</t>
+  </si>
+  <si>
+    <t>AOT13_RS01970</t>
+  </si>
+  <si>
+    <t>AOT13_RS18460</t>
+  </si>
+  <si>
+    <t>AOT13_RS01715</t>
+  </si>
+  <si>
+    <t>AOT13_RS05320</t>
+  </si>
+  <si>
+    <t>AOT13_RS16860</t>
+  </si>
+  <si>
+    <t>AOT13_RS08425</t>
+  </si>
+  <si>
+    <t>AOT13_RS11980</t>
+  </si>
+  <si>
+    <t>AOT13_RS18315</t>
+  </si>
+  <si>
+    <t>AOT13_RS02100</t>
+  </si>
+  <si>
+    <t>AOT13_RS13670</t>
+  </si>
+  <si>
+    <t>AOT13_RS14280</t>
+  </si>
+  <si>
+    <t>AOT13_RS16950</t>
+  </si>
+  <si>
+    <t>AOT13_RS19000</t>
+  </si>
+  <si>
+    <t>AOT13_RS13510</t>
+  </si>
+  <si>
+    <t>AOT13_RS14705</t>
+  </si>
+  <si>
+    <t>AOT13_RS15210</t>
+  </si>
+  <si>
+    <t>AOT13_RS07210</t>
+  </si>
+  <si>
+    <t>AOT13_RS10155</t>
+  </si>
+  <si>
+    <t>AOT13_RS07240</t>
+  </si>
+  <si>
+    <t>AOT13_RS13665</t>
+  </si>
+  <si>
+    <t>AOT13_RS04865</t>
+  </si>
+  <si>
+    <t>AOT13_RS10690</t>
+  </si>
+  <si>
+    <t>AOT13_RS03565</t>
+  </si>
+  <si>
+    <t>AOT13_RS16990</t>
+  </si>
+  <si>
+    <t>AOT13_RS17580</t>
+  </si>
+  <si>
+    <t>AOT13_RS16470</t>
+  </si>
+  <si>
+    <t>AOT13_RS17900</t>
+  </si>
+  <si>
+    <t>AOT13_RS01845</t>
+  </si>
+  <si>
+    <t>AOT13_RS08870</t>
+  </si>
+  <si>
+    <t>AOT13_RS13590</t>
+  </si>
+  <si>
+    <t>AOT13_RS17885</t>
+  </si>
+  <si>
+    <t>AOT13_RS17965</t>
+  </si>
+  <si>
+    <t>AOT13_RS12190</t>
+  </si>
+  <si>
+    <t>AOT13_RS15145</t>
+  </si>
+  <si>
+    <t>AOT13_RS02510</t>
+  </si>
+  <si>
+    <t>AOT13_RS18265</t>
+  </si>
+  <si>
+    <t>AOT13_RS00160</t>
+  </si>
+  <si>
+    <t>AOT13_RS13720</t>
+  </si>
+  <si>
+    <t>AOT13_RS01795</t>
+  </si>
+  <si>
+    <t>AOT13_RS05070</t>
+  </si>
+  <si>
+    <t>AOT13_RS15480</t>
+  </si>
+  <si>
+    <t>AOT13_RS12185</t>
+  </si>
+  <si>
+    <t>AOT13_RS09990</t>
+  </si>
+  <si>
+    <t>AOT13_RS15770</t>
+  </si>
+  <si>
+    <t>AOT13_RS13440</t>
+  </si>
+  <si>
+    <t>AOT13_RS13640</t>
+  </si>
+  <si>
+    <t>AOT13_RS10610</t>
+  </si>
+  <si>
+    <t>AOT13_RS03690</t>
+  </si>
+  <si>
+    <t>AOT13_RS07015</t>
+  </si>
+  <si>
+    <t>AOT13_RS06300</t>
+  </si>
+  <si>
+    <t>AOT13_RS03550</t>
+  </si>
+  <si>
+    <t>AOT13_RS12975</t>
+  </si>
+  <si>
+    <t>AOT13_RS14435</t>
+  </si>
+  <si>
+    <t>AOT13_RS11850</t>
+  </si>
+  <si>
+    <t>AOT13_RS10870</t>
+  </si>
+  <si>
+    <t>AOT13_RS15730</t>
+  </si>
+  <si>
+    <t>AOT13_RS08040</t>
+  </si>
+  <si>
+    <t>AOT13_RS03825</t>
+  </si>
+  <si>
+    <t>AOT13_RS03215</t>
+  </si>
+  <si>
+    <t>AOT13_RS10170</t>
+  </si>
+  <si>
+    <t>AOT13_RS12725</t>
+  </si>
+  <si>
+    <t>AOT13_RS16790</t>
+  </si>
+  <si>
+    <t>AOT13_RS01955</t>
+  </si>
+  <si>
+    <t>AOT13_RS06640</t>
+  </si>
+  <si>
+    <t>AOT13_RS02850</t>
+  </si>
+  <si>
+    <t>AOT13_RS03535</t>
+  </si>
+  <si>
+    <t>AOT13_RS09225</t>
+  </si>
+  <si>
+    <t>AOT13_RS05495</t>
+  </si>
+  <si>
+    <t>AOT13_RS08255</t>
+  </si>
+  <si>
+    <t>AOT13_RS11975</t>
+  </si>
+  <si>
+    <t>AOT13_RS11535</t>
+  </si>
+  <si>
+    <t>AOT13_RS10620</t>
+  </si>
+  <si>
+    <t>AOT13_RS05665</t>
+  </si>
+  <si>
+    <t>AOT13_RS05175</t>
+  </si>
+  <si>
+    <t>AOT13_RS18760</t>
+  </si>
+  <si>
+    <t>AOT13_RS12330</t>
+  </si>
+  <si>
+    <t>AOT13_RS04105</t>
+  </si>
+  <si>
+    <t>AOT13_RS01670</t>
+  </si>
+  <si>
+    <t>AOT13_RS09920</t>
+  </si>
+  <si>
+    <t>AOT13_RS18730</t>
+  </si>
+  <si>
+    <t>AOT13_RS15970</t>
+  </si>
+  <si>
+    <t>AOT13_RS18765</t>
+  </si>
+  <si>
+    <t>AOT13_RS04175</t>
+  </si>
+  <si>
+    <t>AOT13_RS00090</t>
+  </si>
+  <si>
+    <t>AOT13_RS15055</t>
+  </si>
+  <si>
+    <t>AOT13_RS03345</t>
+  </si>
+  <si>
+    <t>AOT13_RS08590</t>
+  </si>
+  <si>
+    <t>AOT13_RS09555</t>
+  </si>
+  <si>
+    <t>AOT13_RS14045</t>
+  </si>
+  <si>
+    <t>AOT13_RS03315</t>
+  </si>
+  <si>
+    <t>AOT13_RS01110</t>
+  </si>
+  <si>
+    <t>AOT13_RS04820</t>
+  </si>
+  <si>
+    <t>AOT13_RS02215</t>
+  </si>
+  <si>
+    <t>AOT13_RS06560</t>
+  </si>
+  <si>
+    <t>AOT13_RS16845</t>
+  </si>
+  <si>
+    <t>AOT13_RS14940</t>
+  </si>
+  <si>
+    <t>AOT13_RS15015</t>
+  </si>
+  <si>
+    <t>AOT13_RS09485</t>
+  </si>
+  <si>
+    <t>AOT13_RS14245</t>
+  </si>
+  <si>
+    <t>AOT13_RS07050</t>
+  </si>
+  <si>
+    <t>AOT13_RS09665</t>
+  </si>
+  <si>
+    <t>AOT13_RS12090</t>
+  </si>
+  <si>
+    <t>AOT13_RS04150</t>
+  </si>
+  <si>
+    <t>AOT13_RS18365</t>
+  </si>
+  <si>
+    <t>AOT13_RS08880</t>
+  </si>
+  <si>
+    <t>AOT13_RS05390</t>
+  </si>
+  <si>
+    <t>AOT13_RS13605</t>
+  </si>
+  <si>
+    <t>AOT13_RS08125</t>
+  </si>
+  <si>
+    <t>AOT13_RS10745</t>
+  </si>
+  <si>
+    <t>AOT13_RS11580</t>
+  </si>
+  <si>
+    <t>AOT13_RS12135</t>
+  </si>
+  <si>
+    <t>AOT13_RS12910</t>
+  </si>
+  <si>
+    <t>2.8.1.8</t>
+  </si>
+  <si>
+    <t>1.14.14.9</t>
+  </si>
+  <si>
+    <t>3.4.21.92</t>
+  </si>
+  <si>
+    <t>2.6.1.92</t>
+  </si>
+  <si>
+    <t>2.4.1.187</t>
+  </si>
+  <si>
+    <t>3.4.21.62</t>
+  </si>
+  <si>
+    <t>3.5.1.28</t>
+  </si>
+  <si>
+    <t>5.4.99.12</t>
+  </si>
+  <si>
+    <t>2.7.7.6</t>
+  </si>
+  <si>
+    <t>3.4.11.18</t>
+  </si>
+  <si>
+    <t>6.1.1.16</t>
+  </si>
+  <si>
+    <t>6.1.1.17</t>
+  </si>
+  <si>
+    <t>6.1.1.6</t>
+  </si>
+  <si>
+    <t>3.1.1.29</t>
+  </si>
+  <si>
+    <t>6.1.1.10</t>
+  </si>
+  <si>
+    <t>6.1.1.11</t>
+  </si>
+  <si>
+    <t>3.1.26.5</t>
+  </si>
+  <si>
+    <t>2.1.1.170</t>
+  </si>
+  <si>
+    <t>1.97.1.4</t>
+  </si>
+  <si>
+    <t>3.2.2.27</t>
+  </si>
+  <si>
+    <t>2.7.1.21</t>
+  </si>
+  <si>
+    <t>3.1.3.48</t>
+  </si>
+  <si>
+    <t>2.7.7.9</t>
+  </si>
+  <si>
+    <t>6.5.1.2</t>
+  </si>
+  <si>
+    <t>5.1.3.32</t>
+  </si>
+  <si>
+    <t>1.17.1.4</t>
+  </si>
+  <si>
+    <t>3.5.1.104</t>
+  </si>
+  <si>
+    <t>1.6.5.2</t>
+  </si>
+  <si>
+    <t>5.2.1.8</t>
+  </si>
+  <si>
+    <t>3.4.21.89</t>
+  </si>
+  <si>
+    <t>6.1.1.2</t>
+  </si>
+  <si>
+    <t>2.1.1.63</t>
+  </si>
+  <si>
+    <t>5.3.1.23</t>
+  </si>
+  <si>
+    <t>1.7.1.13</t>
+  </si>
+  <si>
+    <t>2.7.3.9</t>
+  </si>
+  <si>
+    <t>3.5.1.88</t>
+  </si>
+  <si>
+    <t>3.1.3.25</t>
+  </si>
+  <si>
+    <t>2.5.1.141</t>
+  </si>
+  <si>
+    <t>2.1.1.199</t>
+  </si>
+  <si>
+    <t>6.1.1.5</t>
+  </si>
+  <si>
+    <t>3.4.23.36</t>
+  </si>
+  <si>
+    <t>5.4.99.23</t>
+  </si>
+  <si>
+    <t>2.7.7.6</t>
+  </si>
+  <si>
+    <t>3.5.1.88</t>
+  </si>
+  <si>
+    <t>2.1.2.9</t>
+  </si>
+  <si>
+    <t>3.1.26.3</t>
+  </si>
+  <si>
+    <t>3.4.21.89</t>
+  </si>
+  <si>
+    <t>2.1.1.74</t>
+  </si>
+  <si>
+    <t>3.1.1.61</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.7.4.22</t>
+  </si>
+  <si>
+    <t>1.1.1.267</t>
+  </si>
+  <si>
+    <t>2.7.7.7</t>
+  </si>
+  <si>
+    <t>5.4.99.25</t>
+  </si>
+  <si>
+    <t>2.7.7.8</t>
+  </si>
+  <si>
+    <t>2.1.1.72</t>
+  </si>
+  <si>
+    <t>2.5.1.75</t>
+  </si>
+  <si>
+    <t>3.4.21.88</t>
+  </si>
+  <si>
+    <t>3.1.4.46</t>
+  </si>
+  <si>
+    <t>1.14.11.17</t>
+  </si>
+  <si>
+    <t>3.5.1.9</t>
+  </si>
+  <si>
+    <t>3.4.19.3</t>
+  </si>
+  <si>
+    <t>3.4.11.18</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>1.12.99.6</t>
+  </si>
+  <si>
+    <t>3.4.11.4</t>
+  </si>
+  <si>
+    <t>1.8.4.11</t>
+  </si>
+  <si>
+    <t>1.20.4.4</t>
+  </si>
+  <si>
+    <t>4.1.3.39</t>
+  </si>
+  <si>
+    <t>3.4.23.51</t>
+  </si>
+  <si>
+    <t>3.4.17.19</t>
+  </si>
+  <si>
+    <t>3.5.1.4</t>
+  </si>
+  <si>
+    <t>4.1.3.43</t>
+  </si>
+  <si>
+    <t>6.2.1.30</t>
+  </si>
+  <si>
+    <t>1.2.1.41</t>
+  </si>
+  <si>
+    <t>4.2.99.18</t>
+  </si>
+  <si>
+    <t>6.1.1.22</t>
+  </si>
+  <si>
+    <t>4.1.1.11</t>
+  </si>
+  <si>
+    <t>6.3.4.15</t>
+  </si>
+  <si>
+    <t>4.1.1.48</t>
+  </si>
+  <si>
+    <t>2.1.1.80</t>
+  </si>
+  <si>
+    <t>2.7.11.1</t>
+  </si>
+  <si>
+    <t>3.4.16.4</t>
+  </si>
+  <si>
+    <t>1.6.99.1</t>
+  </si>
+  <si>
+    <t>3.1.26.11</t>
+  </si>
+  <si>
+    <t>3.1.4.46</t>
+  </si>
+  <si>
+    <t>3.4.21.116</t>
+  </si>
+  <si>
+    <t>3.1.11.6</t>
+  </si>
+  <si>
+    <t>3.4.13.9</t>
+  </si>
+  <si>
+    <t>3.4.19.11</t>
+  </si>
+  <si>
+    <t>2.7.1.2</t>
+  </si>
+  <si>
+    <t>1.15.1.1</t>
+  </si>
+  <si>
+    <t>2.1.1.193</t>
+  </si>
+  <si>
+    <t>2.1.1.104</t>
+  </si>
+  <si>
+    <t>3.4.24.78</t>
+  </si>
+  <si>
+    <t>6.1.1.7</t>
+  </si>
+  <si>
+    <t>6.1.1.12</t>
+  </si>
+  <si>
+    <t>3.1.1.96</t>
+  </si>
+  <si>
+    <t>2.4.2.29</t>
+  </si>
+  <si>
+    <t>6.1.1.9</t>
+  </si>
+  <si>
+    <t>5.2.1.8</t>
+  </si>
+  <si>
+    <t>2.7.7.56</t>
+  </si>
+  <si>
+    <t>1.14.14.5</t>
+  </si>
+  <si>
+    <t>6.2.1.3</t>
+  </si>
+  <si>
+    <t>3.1.26.4</t>
+  </si>
+  <si>
+    <t>6.1.1.20</t>
+  </si>
+  <si>
+    <t>2.7.7.7</t>
+  </si>
+  <si>
+    <t>2.7.2.1</t>
+  </si>
+  <si>
+    <t>6.1.1.1</t>
+  </si>
+  <si>
+    <t>6.1.1.20</t>
+  </si>
+  <si>
+    <t>6.1.1.4</t>
+  </si>
+  <si>
+    <t>3.4.21.53</t>
+  </si>
+  <si>
+    <t>1.4.1.18</t>
+  </si>
+  <si>
+    <t>2.4.99.17</t>
+  </si>
+  <si>
+    <t>3.5.5.1</t>
+  </si>
+  <si>
+    <t>3.1.26.8</t>
+  </si>
+  <si>
+    <t>5.4.99.62</t>
+  </si>
+  <si>
+    <t>2.7.14.1</t>
+  </si>
+  <si>
+    <t>4.1.3.17</t>
+  </si>
+  <si>
+    <t>2.7.11.32</t>
+  </si>
+  <si>
+    <t>2.5.1.61</t>
+  </si>
+  <si>
+    <t>3.2.2.23</t>
+  </si>
+  <si>
+    <t>4.2.3.130</t>
+  </si>
+  <si>
+    <t>4.6.1.17</t>
+  </si>
+  <si>
+    <t>5.6.1.7</t>
+  </si>
+  <si>
+    <t>2.5.1.n9</t>
+  </si>
+  <si>
+    <t>6.1.1.15</t>
+  </si>
+  <si>
+    <t>2.1.1.271</t>
+  </si>
+  <si>
+    <t>7.4.2.8</t>
+  </si>
+  <si>
+    <t>3.1.4.59</t>
+  </si>
+  <si>
+    <t>2.4.1.339</t>
+  </si>
+  <si>
+    <t>3.4.25.2</t>
+  </si>
+  <si>
+    <t>2.1.1.217</t>
+  </si>
+  <si>
+    <t>7.6.2.11</t>
+  </si>
+  <si>
+    <t>2.7.1.208</t>
+  </si>
+  <si>
+    <t>4.1.99.22</t>
+  </si>
+  <si>
+    <t>3.6.1.17</t>
+  </si>
+  <si>
+    <t>2.7.4.25</t>
+  </si>
+  <si>
+    <t>1.18.1.2</t>
+  </si>
+  <si>
+    <t>1.14.14.35</t>
+  </si>
+  <si>
+    <t>2.7.8.7</t>
+  </si>
+  <si>
+    <t>2.3.1.274</t>
+  </si>
+  <si>
+    <t>2.1.1.207</t>
+  </si>
+  <si>
+    <t>6.1.1.21</t>
+  </si>
+  <si>
+    <t>4.3.99.3</t>
+  </si>
+  <si>
+    <t>3.6.1.73</t>
+  </si>
+  <si>
+    <t>1.18.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.93</t>
+  </si>
+  <si>
+    <t>3.5.99.10</t>
+  </si>
+  <si>
+    <t>7.5.2.7</t>
+  </si>
+  <si>
+    <t>5.6.2.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>4.3.1.7</t>
+  </si>
+  <si>
+    <t>2.3.1.204</t>
+  </si>
+  <si>
+    <t>2.1.1.297</t>
+  </si>
+  <si>
+    <t>3.2.1.41</t>
+  </si>
+  <si>
+    <t>7.4.2.11</t>
+  </si>
+  <si>
+    <t>1.5.1.45</t>
+  </si>
+  <si>
+    <t>7.2.2.21</t>
+  </si>
+  <si>
+    <t>2.8.1.4</t>
+  </si>
+  <si>
+    <t>6.3.5.7</t>
+  </si>
+  <si>
+    <t>1.11.1.24</t>
+  </si>
+  <si>
+    <t>3.6.1.66</t>
+  </si>
+  <si>
+    <t>3.1.26.4</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.3.1.286</t>
+  </si>
+  <si>
+    <t>5.3.2.5</t>
+  </si>
+  <si>
+    <t>3.6.5.n1</t>
+  </si>
+  <si>
+    <t>2.3.1.39</t>
+  </si>
+  <si>
+    <t>4.2.1.136</t>
+  </si>
+  <si>
+    <t>7.4.2.8</t>
+  </si>
+  <si>
+    <t>2.3.1.234</t>
+  </si>
+  <si>
+    <t>3.4.14.13</t>
+  </si>
+  <si>
+    <t>2.8.4.3</t>
+  </si>
+  <si>
+    <t>3.5.4.33</t>
+  </si>
+  <si>
+    <t>3.1.3.71</t>
+  </si>
+  <si>
+    <t>3.5.1.87</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>4.1.1.2</t>
+  </si>
+  <si>
+    <t>6.3.4.20</t>
+  </si>
+  <si>
+    <t>1.13.11.24</t>
+  </si>
+  <si>
+    <t>2.1.1.177</t>
+  </si>
+  <si>
+    <t>6.1.1.3</t>
+  </si>
+  <si>
+    <t>2.8.1.12</t>
+  </si>
+  <si>
+    <t>3.5.2.9</t>
+  </si>
+  <si>
+    <t>7.4.2.11</t>
+  </si>
+  <si>
+    <t>1.1.1.192</t>
+  </si>
+  <si>
+    <t>2.8.1.13</t>
+  </si>
+  <si>
+    <t>3.2.2.31</t>
+  </si>
+  <si>
+    <t>7.2.2.16</t>
+  </si>
+  <si>
+    <t>1.15.1.1</t>
+  </si>
+  <si>
+    <t>7.6.2.14</t>
+  </si>
+  <si>
+    <t>2.7.7.7</t>
+  </si>
+  <si>
+    <t>7.5.2.7</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.5.1.145</t>
+  </si>
+  <si>
+    <t>7.6.2.10</t>
+  </si>
+  <si>
+    <t>7.6.2.14</t>
+  </si>
+  <si>
+    <t>7.4.2.11</t>
+  </si>
+  <si>
+    <t>7.2.2.16</t>
+  </si>
+  <si>
+    <t>2.1.1.33</t>
+  </si>
+  <si>
+    <t>7.4.2.11</t>
+  </si>
+  <si>
+    <t>2.7.1.107</t>
+  </si>
+  <si>
+    <t>3.1.21.2</t>
+  </si>
+  <si>
+    <t>1.17.99.9</t>
+  </si>
+  <si>
+    <t>2.1.1.63</t>
+  </si>
+  <si>
+    <t>6.2.1.40</t>
+  </si>
+  <si>
+    <t>1.16.1.10</t>
+  </si>
+  <si>
+    <t>1.7.1.17</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.1.4.59</t>
+  </si>
+  <si>
+    <t>2.3.2.13</t>
+  </si>
+  <si>
+    <t>2.3.1.286</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.5.1.2</t>
+  </si>
+  <si>
+    <t>1.7.2.1</t>
+  </si>
+  <si>
+    <t>1.3.1.84</t>
+  </si>
+  <si>
+    <t>2.10.1.1</t>
+  </si>
+  <si>
+    <t>1.13.11.24</t>
+  </si>
+  <si>
+    <t>2.7.8.7</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>6.1.1.19</t>
+  </si>
+  <si>
+    <t>2.8.4.5</t>
+  </si>
+  <si>
+    <t>3.4.23.43</t>
+  </si>
+  <si>
+    <t>3.1.11.6</t>
+  </si>
+  <si>
+    <t>7.6.2.14</t>
+  </si>
+  <si>
+    <t>5.1.1.20</t>
+  </si>
+  <si>
+    <t>2.1.1.192</t>
+  </si>
+  <si>
+    <t>7.2.2.8</t>
+  </si>
+  <si>
+    <t>1.5.1.38</t>
+  </si>
+  <si>
+    <t>4.2.1.130</t>
+  </si>
+  <si>
+    <t>2.3.1.275</t>
+  </si>
+  <si>
+    <t>2.7.1.205</t>
+  </si>
+  <si>
+    <t>2.1.1.185</t>
+  </si>
+  <si>
+    <t>2.7.7.75</t>
+  </si>
+  <si>
+    <t>1.6.5.9</t>
+  </si>
+  <si>
+    <t>4.3.2.6</t>
+  </si>
+  <si>
+    <t>1.1.1.371</t>
+  </si>
+  <si>
+    <t>1.14.14.10</t>
+  </si>
+  <si>
+    <t>2.7.7.72</t>
+  </si>
+  <si>
+    <t>2.1.1.178</t>
+  </si>
+  <si>
+    <t>3.1.21.5</t>
+  </si>
+  <si>
+    <t>3.5.1.1</t>
+  </si>
+  <si>
+    <t>3.13.1.5</t>
+  </si>
+  <si>
+    <t>1.5.1.38</t>
+  </si>
+  <si>
+    <t>1.3.1.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.2.1.135</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.4.16.4</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>6.2.1.25</t>
+  </si>
+  <si>
+    <t>5.6.2.1</t>
+  </si>
+  <si>
+    <t>1.1.99.14</t>
+  </si>
+  <si>
+    <t>2.3.1.n4</t>
+  </si>
+  <si>
+    <t>4.1.2.50</t>
+  </si>
+  <si>
+    <t>1.12.98.3</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.7.1.180</t>
+  </si>
+  <si>
+    <t>3.1.21.4</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.1.1.187</t>
+  </si>
+  <si>
+    <t>7.4.2.1</t>
+  </si>
+  <si>
+    <t>2.1.1.182</t>
+  </si>
+  <si>
+    <t>5.3.2.6</t>
+  </si>
+  <si>
+    <t>3.5.1.44</t>
+  </si>
+  <si>
+    <t>1.1.99.14</t>
+  </si>
+  <si>
+    <t>1.11.1.24</t>
+  </si>
+  <si>
+    <t>2.1.1.n11</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>1.3.98.6</t>
+  </si>
+  <si>
+    <t>3.2.2.21</t>
+  </si>
+  <si>
+    <t>3.1.12.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.5.1.18</t>
+  </si>
+  <si>
+    <t>3.1.1.106</t>
+  </si>
+  <si>
+    <t>1.5.1.38</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.4.1.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.4.1.352</t>
+  </si>
+  <si>
+    <t>4.4.1.13</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>2.1.1.34</t>
+  </si>
+  <si>
+    <t>3.4.16.4</t>
+  </si>
+  <si>
+    <t>6.4.1.6</t>
+  </si>
+  <si>
+    <t>2.7.11.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>4.2.1.115</t>
+  </si>
+  <si>
+    <t>7.6.2.2</t>
+  </si>
+  <si>
+    <t>3.5.1.104</t>
+  </si>
+  <si>
+    <t>3.1.1.114</t>
+  </si>
+  <si>
+    <t>7.2.2.20</t>
+  </si>
+  <si>
+    <t>2.3.1.174</t>
+  </si>
+  <si>
+    <t>7.5.2.3</t>
+  </si>
+  <si>
+    <t>3.1.3.60</t>
+  </si>
+  <si>
+    <t>1.1.99.14</t>
+  </si>
+  <si>
+    <t>1.1.1.343</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>1.12.99.6</t>
+  </si>
+  <si>
+    <t>3.5.1.28</t>
+  </si>
+  <si>
+    <t>3.4.16.4</t>
+  </si>
+  <si>
+    <t>2.7.11.1</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>3.5.1.104</t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>7.2.2.11</t>
+  </si>
+  <si>
+    <t>5.1.3.3</t>
+  </si>
+  <si>
+    <t>2.7.9.3</t>
+  </si>
+  <si>
+    <t>2.1.1.137</t>
+  </si>
   <si>
     <t>AOT13_RS00265</t>
   </si>
@@ -1946,10 +5696,10 @@
         <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>315</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="2">
@@ -1957,10 +5707,10 @@
         <v>107</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>1251</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>316</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="3">
@@ -1968,10 +5718,10 @@
         <v>153</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2</v>
+        <v>1252</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>317</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="4">
@@ -1979,10 +5729,10 @@
         <v>202</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>1253</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>318</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="5">
@@ -1990,10 +5740,10 @@
         <v>300</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>1254</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>319</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="6">
@@ -2001,10 +5751,10 @@
         <v>370</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>1255</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>320</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="7">
@@ -2012,10 +5762,10 @@
         <v>422</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>1256</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>321</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="8">
@@ -2023,10 +5773,10 @@
         <v>426</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>1257</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>322</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="9">
@@ -2034,10 +5784,10 @@
         <v>431</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>1258</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>323</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="10">
@@ -2045,10 +5795,10 @@
         <v>436</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>1259</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>324</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="11">
@@ -2056,10 +5806,10 @@
         <v>480</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>1260</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>325</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="12">
@@ -2067,10 +5817,10 @@
         <v>482</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>1261</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>326</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="13">
@@ -2078,10 +5828,10 @@
         <v>491</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>1262</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>327</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="14">
@@ -2089,10 +5839,10 @@
         <v>519</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>1263</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>328</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="15">
@@ -2100,10 +5850,10 @@
         <v>533</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>1264</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>329</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="16">
@@ -2111,10 +5861,10 @@
         <v>552</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>1265</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>330</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="17">
@@ -2122,10 +5872,10 @@
         <v>566</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>1266</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>331</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="18">
@@ -2133,10 +5883,10 @@
         <v>571</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>17</v>
+        <v>1267</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>332</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="19">
@@ -2144,10 +5894,10 @@
         <v>614</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>18</v>
+        <v>1268</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>333</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="20">
@@ -2155,10 +5905,10 @@
         <v>641</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>19</v>
+        <v>1269</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>334</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="21">
@@ -2166,10 +5916,10 @@
         <v>679</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>1270</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>335</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="22">
@@ -2177,10 +5927,10 @@
         <v>738</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>21</v>
+        <v>1271</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>336</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="23">
@@ -2188,10 +5938,10 @@
         <v>740</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>22</v>
+        <v>1272</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>337</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="24">
@@ -2199,10 +5949,10 @@
         <v>878</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>23</v>
+        <v>1273</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>338</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="25">
@@ -2210,10 +5960,10 @@
         <v>939</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
+        <v>1274</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>339</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="26">
@@ -2221,10 +5971,10 @@
         <v>1000</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>25</v>
+        <v>1275</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>340</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="27">
@@ -2232,10 +5982,10 @@
         <v>1043</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>26</v>
+        <v>1276</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>341</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="28">
@@ -2243,10 +5993,10 @@
         <v>1151</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>27</v>
+        <v>1277</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>342</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="29">
@@ -2254,10 +6004,10 @@
         <v>1242</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>28</v>
+        <v>1278</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>343</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="30">
@@ -2265,10 +6015,10 @@
         <v>1267</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>29</v>
+        <v>1279</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>344</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="31">
@@ -2276,10 +6026,10 @@
         <v>1356</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>30</v>
+        <v>1280</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>345</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="32">
@@ -2287,10 +6037,10 @@
         <v>1467</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>31</v>
+        <v>1281</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>346</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="33">
@@ -2298,10 +6048,10 @@
         <v>1471</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>32</v>
+        <v>1282</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>347</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="34">
@@ -2309,10 +6059,10 @@
         <v>1495</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>33</v>
+        <v>1283</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>348</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="35">
@@ -2320,10 +6070,10 @@
         <v>1509</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>34</v>
+        <v>1284</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>349</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="36">
@@ -2331,10 +6081,10 @@
         <v>1543</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>35</v>
+        <v>1285</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>350</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="37">
@@ -2342,10 +6092,10 @@
         <v>1557</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>36</v>
+        <v>1286</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>351</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="38">
@@ -2353,10 +6103,10 @@
         <v>1571</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>37</v>
+        <v>1287</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>352</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="39">
@@ -2364,10 +6114,10 @@
         <v>1602</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>38</v>
+        <v>1288</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>353</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="40">
@@ -2375,10 +6125,10 @@
         <v>1627</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>39</v>
+        <v>1289</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>354</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="41">
@@ -2386,10 +6136,10 @@
         <v>1628</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>40</v>
+        <v>1290</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>355</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="42">
@@ -2397,10 +6147,10 @@
         <v>1629</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>41</v>
+        <v>1291</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>356</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="43">
@@ -2408,10 +6158,10 @@
         <v>1653</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>42</v>
+        <v>1292</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>357</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="44">
@@ -2419,10 +6169,10 @@
         <v>1656</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>43</v>
+        <v>1293</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>358</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="45">
@@ -2430,10 +6180,10 @@
         <v>1657</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>44</v>
+        <v>1294</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>359</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="46">
@@ -2441,10 +6191,10 @@
         <v>1675</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>45</v>
+        <v>1295</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>360</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="47">
@@ -2452,10 +6202,10 @@
         <v>1686</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>46</v>
+        <v>1296</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>361</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="48">
@@ -2463,10 +6213,10 @@
         <v>1696</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>47</v>
+        <v>1297</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>362</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="49">
@@ -2474,10 +6224,10 @@
         <v>1726</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>48</v>
+        <v>1298</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>363</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="50">
@@ -2485,10 +6235,10 @@
         <v>1727</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>49</v>
+        <v>1299</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>364</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="51">
@@ -2496,10 +6246,10 @@
         <v>1736</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>50</v>
+        <v>1300</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>365</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="52">
@@ -2507,10 +6257,10 @@
         <v>1740</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>51</v>
+        <v>1301</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>366</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="53">
@@ -2518,10 +6268,10 @@
         <v>1743</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>52</v>
+        <v>1302</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>367</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="54">
@@ -2529,10 +6279,10 @@
         <v>1750</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>53</v>
+        <v>1303</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>368</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="55">
@@ -2540,10 +6290,10 @@
         <v>1753</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>54</v>
+        <v>1304</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>369</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="56">
@@ -2551,10 +6301,10 @@
         <v>1788</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>55</v>
+        <v>1305</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>370</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="57">
@@ -2562,10 +6312,10 @@
         <v>1789</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>56</v>
+        <v>1306</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>370</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="58">
@@ -2573,10 +6323,10 @@
         <v>1820</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>57</v>
+        <v>1307</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>371</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="59">
@@ -2584,10 +6334,10 @@
         <v>1834</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>58</v>
+        <v>1308</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>372</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="60">
@@ -2595,10 +6345,10 @@
         <v>1975</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>59</v>
+        <v>1309</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>373</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="61">
@@ -2606,10 +6356,10 @@
         <v>1977</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>60</v>
+        <v>1310</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>374</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="62">
@@ -2617,10 +6367,10 @@
         <v>2130</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>61</v>
+        <v>1311</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>375</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="63">
@@ -2628,10 +6378,10 @@
         <v>2151</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>62</v>
+        <v>1312</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>376</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +6389,10 @@
         <v>2219</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>63</v>
+        <v>1313</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>377</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="65">
@@ -2650,10 +6400,10 @@
         <v>2220</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>64</v>
+        <v>1314</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>378</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="66">
@@ -2661,10 +6411,10 @@
         <v>2284</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>65</v>
+        <v>1315</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>379</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="67">
@@ -2672,10 +6422,10 @@
         <v>2311</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>66</v>
+        <v>1316</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>380</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="68">
@@ -2683,10 +6433,10 @@
         <v>2387</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>67</v>
+        <v>1317</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>381</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="69">
@@ -2694,10 +6444,10 @@
         <v>2444</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>68</v>
+        <v>1318</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>382</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="70">
@@ -2705,10 +6455,10 @@
         <v>2459</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>69</v>
+        <v>1319</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>383</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="71">
@@ -2716,10 +6466,10 @@
         <v>2528</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>70</v>
+        <v>1320</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>384</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="72">
@@ -2727,10 +6477,10 @@
         <v>2688</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>71</v>
+        <v>1321</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>385</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="73">
@@ -2738,10 +6488,10 @@
         <v>2723</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>72</v>
+        <v>1322</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>386</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="74">
@@ -2749,10 +6499,10 @@
         <v>2744</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>73</v>
+        <v>1323</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>387</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="75">
@@ -2760,10 +6510,10 @@
         <v>2843</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>74</v>
+        <v>1324</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>388</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="76">
@@ -2771,10 +6521,10 @@
         <v>2860</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>75</v>
+        <v>1325</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>389</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="77">
@@ -2782,10 +6532,10 @@
         <v>2919</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>76</v>
+        <v>1326</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>390</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="78">
@@ -2793,10 +6543,10 @@
         <v>2921</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>77</v>
+        <v>1327</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>391</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="79">
@@ -2804,10 +6554,10 @@
         <v>2926</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>78</v>
+        <v>1328</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>392</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="80">
@@ -2815,10 +6565,10 @@
         <v>2929</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>79</v>
+        <v>1329</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>393</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="81">
@@ -2826,10 +6576,10 @@
         <v>2952</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>80</v>
+        <v>1330</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>394</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="82">
@@ -2837,10 +6587,10 @@
         <v>2958</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>81</v>
+        <v>1331</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>395</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="83">
@@ -2848,10 +6598,10 @@
         <v>3060</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>82</v>
+        <v>1332</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>396</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="84">
@@ -2859,10 +6609,10 @@
         <v>3062</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>83</v>
+        <v>1333</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>397</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="85">
@@ -2870,10 +6620,10 @@
         <v>3081</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>84</v>
+        <v>1334</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>398</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="86">
@@ -2881,10 +6631,10 @@
         <v>3082</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>85</v>
+        <v>1335</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>399</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="87">
@@ -2892,10 +6642,10 @@
         <v>3116</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>86</v>
+        <v>1336</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>400</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="88">
@@ -2903,10 +6653,10 @@
         <v>3124</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>87</v>
+        <v>1337</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>401</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="89">
@@ -2914,10 +6664,10 @@
         <v>3130</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>88</v>
+        <v>1338</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>402</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="90">
@@ -2925,10 +6675,10 @@
         <v>3146</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>89</v>
+        <v>1339</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>403</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="91">
@@ -2936,10 +6686,10 @@
         <v>3181</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>90</v>
+        <v>1340</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>404</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="92">
@@ -2947,10 +6697,10 @@
         <v>3182</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>91</v>
+        <v>1341</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>405</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="93">
@@ -2958,10 +6708,10 @@
         <v>3195</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>92</v>
+        <v>1342</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>406</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="94">
@@ -2969,10 +6719,10 @@
         <v>3238</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>93</v>
+        <v>1343</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>407</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="95">
@@ -2980,10 +6730,10 @@
         <v>3239</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>94</v>
+        <v>1344</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>408</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="96">
@@ -2991,10 +6741,10 @@
         <v>3248</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>95</v>
+        <v>1345</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>409</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="97">
@@ -3002,10 +6752,10 @@
         <v>3290</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>96</v>
+        <v>1346</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>410</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="98">
@@ -3013,10 +6763,10 @@
         <v>3306</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>97</v>
+        <v>1347</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>411</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="99">
@@ -3024,10 +6774,10 @@
         <v>3309</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>98</v>
+        <v>1348</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>412</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="100">
@@ -3035,10 +6785,10 @@
         <v>3318</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>99</v>
+        <v>1349</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>413</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="101">
@@ -3046,10 +6796,10 @@
         <v>3367</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>100</v>
+        <v>1350</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>414</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="102">
@@ -3057,10 +6807,10 @@
         <v>3382</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>101</v>
+        <v>1351</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>415</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="103">
@@ -3068,10 +6818,10 @@
         <v>3395</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>102</v>
+        <v>1352</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>416</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="104">
@@ -3079,10 +6829,10 @@
         <v>3414</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>103</v>
+        <v>1353</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>417</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="105">
@@ -3090,10 +6840,10 @@
         <v>3424</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>104</v>
+        <v>1354</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>418</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="106">
@@ -3101,10 +6851,10 @@
         <v>3430</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>105</v>
+        <v>1355</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>419</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="107">
@@ -3112,10 +6862,10 @@
         <v>3440</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>106</v>
+        <v>1356</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>420</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="108">
@@ -3123,10 +6873,10 @@
         <v>3441</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>107</v>
+        <v>1357</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>420</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="109">
@@ -3134,10 +6884,10 @@
         <v>3477</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>108</v>
+        <v>1358</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>421</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="110">
@@ -3145,10 +6895,10 @@
         <v>3493</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>109</v>
+        <v>1359</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>422</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="111">
@@ -3156,10 +6906,10 @@
         <v>3510</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>110</v>
+        <v>1360</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>423</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="112">
@@ -3167,10 +6917,10 @@
         <v>3523</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>111</v>
+        <v>1361</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>424</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="113">
@@ -3178,10 +6928,10 @@
         <v>3545</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>112</v>
+        <v>1362</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>425</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="114">
@@ -3189,10 +6939,10 @@
         <v>3379</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>113</v>
+        <v>1363</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>426</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="115">
@@ -3200,10 +6950,10 @@
         <v>994</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>114</v>
+        <v>1364</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>427</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="116">
@@ -3211,10 +6961,10 @@
         <v>3319</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>115</v>
+        <v>1365</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>428</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="117">
@@ -3222,10 +6972,10 @@
         <v>2341</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>116</v>
+        <v>1366</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>429</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="118">
@@ -3233,10 +6983,10 @@
         <v>531</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>117</v>
+        <v>1367</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>430</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="119">
@@ -3244,10 +6994,10 @@
         <v>351</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>118</v>
+        <v>1368</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>431</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="120">
@@ -3255,10 +7005,10 @@
         <v>488</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>119</v>
+        <v>1369</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>432</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="121">
@@ -3266,10 +7016,10 @@
         <v>2241</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>120</v>
+        <v>1370</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>433</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="122">
@@ -3277,10 +7027,10 @@
         <v>3221</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>121</v>
+        <v>1371</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>434</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="123">
@@ -3288,10 +7038,10 @@
         <v>3374</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>122</v>
+        <v>1372</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>435</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="124">
@@ -3299,10 +7049,10 @@
         <v>3462</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>123</v>
+        <v>1373</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>436</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="125">
@@ -3310,10 +7060,10 @@
         <v>3552</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>124</v>
+        <v>1374</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>437</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="126">
@@ -3321,10 +7071,10 @@
         <v>829</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>125</v>
+        <v>1375</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>438</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="127">
@@ -3332,10 +7082,10 @@
         <v>840</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>126</v>
+        <v>1376</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>439</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="128">
@@ -3343,10 +7093,10 @@
         <v>876</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>127</v>
+        <v>1377</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>440</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="129">
@@ -3354,10 +7104,10 @@
         <v>1742</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>128</v>
+        <v>1378</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>441</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="130">
@@ -3365,10 +7115,10 @@
         <v>2254</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>129</v>
+        <v>1379</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>442</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="131">
@@ -3376,10 +7126,10 @@
         <v>194</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>130</v>
+        <v>1380</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>443</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="132">
@@ -3387,10 +7137,10 @@
         <v>585</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>131</v>
+        <v>1381</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>444</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="133">
@@ -3398,10 +7148,10 @@
         <v>764</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>132</v>
+        <v>1382</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>445</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="134">
@@ -3409,10 +7159,10 @@
         <v>1698</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>133</v>
+        <v>1383</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>446</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="135">
@@ -3420,10 +7170,10 @@
         <v>3215</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>134</v>
+        <v>1384</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>447</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="136">
@@ -3431,10 +7181,10 @@
         <v>956</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>135</v>
+        <v>1385</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>448</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="137">
@@ -3442,10 +7192,10 @@
         <v>961</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>136</v>
+        <v>1386</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>449</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="138">
@@ -3453,10 +7203,10 @@
         <v>1329</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>137</v>
+        <v>1387</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>450</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="139">
@@ -3464,10 +7214,10 @@
         <v>1380</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>138</v>
+        <v>1388</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>451</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="140">
@@ -3475,10 +7225,10 @@
         <v>2982</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>139</v>
+        <v>1389</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>452</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="141">
@@ -3486,10 +7236,10 @@
         <v>380</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>140</v>
+        <v>1390</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>453</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="142">
@@ -3497,10 +7247,10 @@
         <v>1809</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>141</v>
+        <v>1391</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>454</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="143">
@@ -3508,10 +7258,10 @@
         <v>816</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>142</v>
+        <v>1392</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>455</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="144">
@@ -3519,10 +7269,10 @@
         <v>1671</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>143</v>
+        <v>1393</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>456</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="145">
@@ -3530,10 +7280,10 @@
         <v>1118</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>144</v>
+        <v>1394</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>457</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="146">
@@ -3541,10 +7291,10 @@
         <v>3307</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>145</v>
+        <v>1395</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>458</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="147">
@@ -3552,10 +7302,10 @@
         <v>1494</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>146</v>
+        <v>1396</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>459</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="148">
@@ -3563,10 +7313,10 @@
         <v>3526</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>147</v>
+        <v>1397</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>460</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="149">
@@ -3574,10 +7324,10 @@
         <v>30</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>148</v>
+        <v>1398</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>461</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="150">
@@ -3585,10 +7335,10 @@
         <v>629</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>149</v>
+        <v>1399</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>462</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="151">
@@ -3596,10 +7346,10 @@
         <v>524</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>150</v>
+        <v>1400</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>463</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="152">
@@ -3607,10 +7357,10 @@
         <v>350</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>151</v>
+        <v>1401</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>464</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="153">
@@ -3618,10 +7368,10 @@
         <v>1695</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>152</v>
+        <v>1402</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>465</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="154">
@@ -3629,10 +7379,10 @@
         <v>968</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>153</v>
+        <v>1403</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>466</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="155">
@@ -3640,10 +7390,10 @@
         <v>2720</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>154</v>
+        <v>1404</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>467</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="156">
@@ -3651,10 +7401,10 @@
         <v>647</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>155</v>
+        <v>1405</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>468</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="157">
@@ -3662,10 +7412,10 @@
         <v>687</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>156</v>
+        <v>1406</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>469</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="158">
@@ -3673,10 +7423,10 @@
         <v>3533</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>157</v>
+        <v>1407</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>470</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="159">
@@ -3684,10 +7434,10 @@
         <v>71</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>158</v>
+        <v>1408</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>471</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="160">
@@ -3695,10 +7445,10 @@
         <v>747</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>159</v>
+        <v>1409</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>472</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="161">
@@ -3706,10 +7456,10 @@
         <v>2608</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>160</v>
+        <v>1410</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>473</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="162">
@@ -3717,10 +7467,10 @@
         <v>3503</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>161</v>
+        <v>1411</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>474</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="163">
@@ -3728,10 +7478,10 @@
         <v>906</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>162</v>
+        <v>1412</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>475</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="164">
@@ -3739,10 +7489,10 @@
         <v>3495</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>163</v>
+        <v>1413</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>476</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="165">
@@ -3750,10 +7500,10 @@
         <v>3394</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>164</v>
+        <v>1414</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>477</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="166">
@@ -3761,10 +7511,10 @@
         <v>1688</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>165</v>
+        <v>1415</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>478</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="167">
@@ -3772,10 +7522,10 @@
         <v>1916</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>166</v>
+        <v>1416</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>479</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="168">
@@ -3783,10 +7533,10 @@
         <v>1961</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>167</v>
+        <v>1417</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>480</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="169">
@@ -3794,10 +7544,10 @@
         <v>1475</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>168</v>
+        <v>1418</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>481</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="170">
@@ -3805,10 +7555,10 @@
         <v>3245</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>169</v>
+        <v>1419</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>482</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="171">
@@ -3816,10 +7566,10 @@
         <v>1672</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>170</v>
+        <v>1420</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>483</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="172">
@@ -3827,10 +7577,10 @@
         <v>2760</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>171</v>
+        <v>1421</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>484</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="173">
@@ -3838,10 +7588,10 @@
         <v>296</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>172</v>
+        <v>1422</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>485</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="174">
@@ -3849,10 +7599,10 @@
         <v>827</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>173</v>
+        <v>1423</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>486</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="175">
@@ -3860,10 +7610,10 @@
         <v>357</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>174</v>
+        <v>1424</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>487</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="176">
@@ -3871,10 +7621,10 @@
         <v>1791</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>175</v>
+        <v>1425</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>488</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="177">
@@ -3882,10 +7632,10 @@
         <v>548</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>176</v>
+        <v>1426</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>489</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="178">
@@ -3893,10 +7643,10 @@
         <v>1521</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>177</v>
+        <v>1427</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>490</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="179">
@@ -3904,10 +7654,10 @@
         <v>361</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>178</v>
+        <v>1428</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>491</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="180">
@@ -3915,10 +7665,10 @@
         <v>2908</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>179</v>
+        <v>1429</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>492</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="181">
@@ -3926,10 +7676,10 @@
         <v>2576</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>180</v>
+        <v>1430</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>493</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="182">
@@ -3937,10 +7687,10 @@
         <v>1492</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>181</v>
+        <v>1431</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>494</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="183">
@@ -3948,10 +7698,10 @@
         <v>186</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>182</v>
+        <v>1432</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>495</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="184">
@@ -3959,10 +7709,10 @@
         <v>596</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>183</v>
+        <v>1433</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>496</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="185">
@@ -3970,10 +7720,10 @@
         <v>3452</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>184</v>
+        <v>1434</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>497</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="186">
@@ -3981,10 +7731,10 @@
         <v>1334</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>185</v>
+        <v>1435</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>498</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="187">
@@ -3992,10 +7742,10 @@
         <v>2755</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>186</v>
+        <v>1436</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>499</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="188">
@@ -4003,10 +7753,10 @@
         <v>927</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>187</v>
+        <v>1437</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>500</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="189">
@@ -4014,10 +7764,10 @@
         <v>2192</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>188</v>
+        <v>1438</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>501</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="190">
@@ -4025,10 +7775,10 @@
         <v>9</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>189</v>
+        <v>1439</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>501</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="191">
@@ -4036,10 +7786,10 @@
         <v>3638</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>190</v>
+        <v>1440</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>501</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="192">
@@ -4047,10 +7797,10 @@
         <v>3616</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>191</v>
+        <v>1441</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>502</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="193">
@@ -4058,10 +7808,10 @@
         <v>1094</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>192</v>
+        <v>1442</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>503</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="194">
@@ -4069,10 +7819,10 @@
         <v>2798</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>193</v>
+        <v>1443</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>504</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="195">
@@ -4080,10 +7830,10 @@
         <v>16</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>194</v>
+        <v>1444</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>505</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="196">
@@ -4091,10 +7841,10 @@
         <v>325</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>195</v>
+        <v>1445</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>506</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="197">
@@ -4102,10 +7852,10 @@
         <v>2547</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>196</v>
+        <v>1446</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>507</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="198">
@@ -4113,10 +7863,10 @@
         <v>2160</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>197</v>
+        <v>1447</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>508</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="199">
@@ -4124,10 +7874,10 @@
         <v>978</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>198</v>
+        <v>1448</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>509</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="200">
@@ -4135,10 +7885,10 @@
         <v>172</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>199</v>
+        <v>1449</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>510</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="201">
@@ -4146,10 +7896,10 @@
         <v>1217</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>200</v>
+        <v>1450</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>511</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="202">
@@ -4157,10 +7907,10 @@
         <v>1811</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>201</v>
+        <v>1451</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>512</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="203">
@@ -4168,10 +7918,10 @@
         <v>2761</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>202</v>
+        <v>1452</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>513</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="204">
@@ -4179,10 +7929,10 @@
         <v>381</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>203</v>
+        <v>1453</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>514</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="205">
@@ -4190,10 +7940,10 @@
         <v>3530</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>204</v>
+        <v>1454</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>515</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="206">
@@ -4201,10 +7951,10 @@
         <v>331</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>205</v>
+        <v>1455</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>516</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="207">
@@ -4212,10 +7962,10 @@
         <v>973</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>206</v>
+        <v>1456</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>517</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="208">
@@ -4223,10 +7973,10 @@
         <v>3210</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>207</v>
+        <v>1457</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>518</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="209">
@@ -4234,10 +7984,10 @@
         <v>1570</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>208</v>
+        <v>1458</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>519</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="210">
@@ -4245,10 +7995,10 @@
         <v>2262</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>209</v>
+        <v>1459</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>520</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="211">
@@ -4256,10 +8006,10 @@
         <v>3501</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>210</v>
+        <v>1460</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>521</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="212">
@@ -4267,10 +8017,10 @@
         <v>408</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>211</v>
+        <v>1461</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>522</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="213">
@@ -4278,10 +8028,10 @@
         <v>2588</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>212</v>
+        <v>1462</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>523</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="214">
@@ -4289,10 +8039,10 @@
         <v>2707</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>213</v>
+        <v>1463</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>524</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="215">
@@ -4300,10 +8050,10 @@
         <v>3229</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>214</v>
+        <v>1464</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>525</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="216">
@@ -4311,10 +8061,10 @@
         <v>3624</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>215</v>
+        <v>1465</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>526</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="217">
@@ -4322,10 +8072,10 @@
         <v>2556</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>216</v>
+        <v>1466</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>527</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="218">
@@ -4333,10 +8083,10 @@
         <v>2792</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>217</v>
+        <v>1467</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>528</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="219">
@@ -4344,10 +8094,10 @@
         <v>2885</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>218</v>
+        <v>1468</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>529</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="220">
@@ -4355,10 +8105,10 @@
         <v>1326</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>219</v>
+        <v>1469</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>530</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="221">
@@ -4366,10 +8116,10 @@
         <v>1910</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>220</v>
+        <v>1470</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>531</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="222">
@@ -4377,10 +8127,10 @@
         <v>1332</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>221</v>
+        <v>1471</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>532</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="223">
@@ -4388,10 +8138,10 @@
         <v>2587</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>222</v>
+        <v>1472</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>533</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="224">
@@ -4399,10 +8149,10 @@
         <v>890</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>223</v>
+        <v>1473</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>534</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="225">
@@ -4410,10 +8160,10 @@
         <v>2011</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>224</v>
+        <v>1474</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>535</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="226">
@@ -4421,10 +8171,10 @@
         <v>658</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>225</v>
+        <v>1475</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>536</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="227">
@@ -4432,10 +8182,10 @@
         <v>3237</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>226</v>
+        <v>1476</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>537</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="228">
@@ -4443,10 +8193,10 @@
         <v>3354</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>227</v>
+        <v>1477</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>538</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="229">
@@ -4454,10 +8204,10 @@
         <v>3131</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>228</v>
+        <v>1478</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>539</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="230">
@@ -4465,10 +8215,10 @@
         <v>3418</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>229</v>
+        <v>1479</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>540</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="231">
@@ -4476,10 +8226,10 @@
         <v>356</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>230</v>
+        <v>1480</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>541</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="232">
@@ -4487,10 +8237,10 @@
         <v>1659</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>231</v>
+        <v>1481</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>542</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="233">
@@ -4498,10 +8248,10 @@
         <v>2572</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>232</v>
+        <v>1482</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>543</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="234">
@@ -4509,10 +8259,10 @@
         <v>3415</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>233</v>
+        <v>1483</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>544</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="235">
@@ -4520,10 +8270,10 @@
         <v>3431</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>234</v>
+        <v>1484</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>545</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="236">
@@ -4531,10 +8281,10 @@
         <v>2305</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>235</v>
+        <v>1485</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>546</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="237">
@@ -4542,10 +8292,10 @@
         <v>2873</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>236</v>
+        <v>1486</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>547</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="238">
@@ -4553,10 +8303,10 @@
         <v>478</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>237</v>
+        <v>1487</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>548</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="239">
@@ -4564,10 +8314,10 @@
         <v>3491</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>238</v>
+        <v>1488</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>549</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="240">
@@ -4575,10 +8325,10 @@
         <v>29</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>239</v>
+        <v>1489</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>550</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="241">
@@ -4586,10 +8336,10 @@
         <v>2594</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>240</v>
+        <v>1490</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>551</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="242">
@@ -4597,10 +8347,10 @@
         <v>346</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>241</v>
+        <v>1491</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>552</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="243">
@@ -4608,10 +8358,10 @@
         <v>930</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>242</v>
+        <v>1492</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>553</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="244">
@@ -4619,10 +8369,10 @@
         <v>2930</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>243</v>
+        <v>1493</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>554</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="245">
@@ -4630,10 +8380,10 @@
         <v>2304</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>244</v>
+        <v>1494</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>555</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="246">
@@ -4641,10 +8391,10 @@
         <v>1881</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>245</v>
+        <v>1495</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>556</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="247">
@@ -4652,10 +8402,10 @@
         <v>2989</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>246</v>
+        <v>1496</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>557</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="248">
@@ -4663,10 +8413,10 @@
         <v>2543</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>247</v>
+        <v>1497</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>558</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="249">
@@ -4674,10 +8424,10 @@
         <v>2582</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>248</v>
+        <v>1498</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>559</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="250">
@@ -4685,10 +8435,10 @@
         <v>1997</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>249</v>
+        <v>1499</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>560</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="251">
@@ -4696,10 +8446,10 @@
         <v>682</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>561</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="252">
@@ -4707,10 +8457,10 @@
         <v>1285</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>251</v>
+        <v>1501</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>562</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="253">
@@ -4718,10 +8468,10 @@
         <v>1148</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>252</v>
+        <v>1502</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>563</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="254">
@@ -4729,10 +8479,10 @@
         <v>655</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>253</v>
+        <v>1503</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>564</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="255">
@@ -4740,10 +8490,10 @@
         <v>2455</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>254</v>
+        <v>1504</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>565</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="256">
@@ -4751,10 +8501,10 @@
         <v>2738</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>255</v>
+        <v>1505</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>566</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="257">
@@ -4762,10 +8512,10 @@
         <v>2237</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>256</v>
+        <v>1506</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>567</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="258">
@@ -4773,10 +8523,10 @@
         <v>2046</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>257</v>
+        <v>1507</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>568</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="259">
@@ -4784,10 +8534,10 @@
         <v>2981</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>258</v>
+        <v>1508</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>569</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="260">
@@ -4795,10 +8545,10 @@
         <v>1493</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>259</v>
+        <v>1509</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>570</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="261">
@@ -4806,10 +8556,10 @@
         <v>709</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>260</v>
+        <v>1510</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>571</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="262">
@@ -4817,10 +8567,10 @@
         <v>590</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>261</v>
+        <v>1511</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>572</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="263">
@@ -4828,10 +8578,10 @@
         <v>1913</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>262</v>
+        <v>1512</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>573</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="264">
@@ -4839,10 +8589,10 @@
         <v>2406</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>263</v>
+        <v>1513</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>574</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="265">
@@ -4850,10 +8600,10 @@
         <v>3196</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>264</v>
+        <v>1514</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>575</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="266">
@@ -4861,10 +8611,10 @@
         <v>378</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>265</v>
+        <v>1515</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>576</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="267">
@@ -4872,10 +8622,10 @@
         <v>1213</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>266</v>
+        <v>1516</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>577</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="268">
@@ -4883,10 +8633,10 @@
         <v>530</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>267</v>
+        <v>1517</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>578</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="269">
@@ -4894,10 +8644,10 @@
         <v>653</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>268</v>
+        <v>1518</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>579</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="270">
@@ -4905,10 +8655,10 @@
         <v>1730</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>269</v>
+        <v>1519</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>580</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="271">
@@ -4916,10 +8666,10 @@
         <v>1010</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>270</v>
+        <v>1520</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>581</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="272">
@@ -4927,10 +8677,10 @@
         <v>1537</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>271</v>
+        <v>1521</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>582</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="273">
@@ -4938,10 +8688,10 @@
         <v>2261</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>272</v>
+        <v>1522</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>583</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="274">
@@ -4949,10 +8699,10 @@
         <v>2173</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>273</v>
+        <v>1523</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>584</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="275">
@@ -4960,10 +8710,10 @@
         <v>1999</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>274</v>
+        <v>1524</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>585</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="276">
@@ -4971,10 +8721,10 @@
         <v>1044</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>275</v>
+        <v>1525</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>586</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="277">
@@ -4982,10 +8732,10 @@
         <v>945</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>276</v>
+        <v>1526</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>587</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="278">
@@ -4993,10 +8743,10 @@
         <v>3591</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>277</v>
+        <v>1527</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>588</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="279">
@@ -5004,10 +8754,10 @@
         <v>2333</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>278</v>
+        <v>1528</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>589</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="280">
@@ -5015,10 +8765,10 @@
         <v>762</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>279</v>
+        <v>1529</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>590</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="281">
@@ -5026,10 +8776,10 @@
         <v>321</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>280</v>
+        <v>1530</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>591</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="282">
@@ -5037,10 +8787,10 @@
         <v>1869</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>281</v>
+        <v>1531</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>592</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="283">
@@ -5048,10 +8798,10 @@
         <v>3585</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>282</v>
+        <v>1532</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>593</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="284">
@@ -5059,10 +8809,10 @@
         <v>3029</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>283</v>
+        <v>1533</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>594</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="285">
@@ -5070,10 +8820,10 @@
         <v>3592</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>284</v>
+        <v>1534</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>594</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="286">
@@ -5081,10 +8831,10 @@
         <v>775</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>285</v>
+        <v>1535</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>595</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="287">
@@ -5092,10 +8842,10 @@
         <v>15</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>286</v>
+        <v>1536</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>596</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="288">
@@ -5103,10 +8853,10 @@
         <v>2855</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>287</v>
+        <v>1537</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>597</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="289">
@@ -5114,10 +8864,10 @@
         <v>617</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>288</v>
+        <v>1538</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>598</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="290">
@@ -5125,10 +8875,10 @@
         <v>1604</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>289</v>
+        <v>1539</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>599</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="291">
@@ -5136,10 +8886,10 @@
         <v>1796</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>290</v>
+        <v>1540</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>600</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="292">
@@ -5147,10 +8897,10 @@
         <v>2660</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>291</v>
+        <v>1541</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>601</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="293">
@@ -5158,10 +8908,10 @@
         <v>611</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>292</v>
+        <v>1542</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>602</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="294">
@@ -5169,10 +8919,10 @@
         <v>210</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>293</v>
+        <v>1543</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>603</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="295">
@@ -5180,10 +8930,10 @@
         <v>882</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>294</v>
+        <v>1544</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>604</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="296">
@@ -5191,10 +8941,10 @@
         <v>418</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>295</v>
+        <v>1545</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>605</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="297">
@@ -5202,10 +8952,10 @@
         <v>1197</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>296</v>
+        <v>1546</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>606</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="298">
@@ -5213,10 +8963,10 @@
         <v>3207</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>297</v>
+        <v>1547</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>607</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="299">
@@ -5224,10 +8974,10 @@
         <v>2833</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>298</v>
+        <v>1548</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>608</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="300">
@@ -5235,10 +8985,10 @@
         <v>2847</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>299</v>
+        <v>1549</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>609</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="301">
@@ -5246,10 +8996,10 @@
         <v>1781</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>300</v>
+        <v>1550</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>610</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="302">
@@ -5257,10 +9007,10 @@
         <v>2700</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>301</v>
+        <v>1551</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>611</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="303">
@@ -5268,10 +9018,10 @@
         <v>1292</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>302</v>
+        <v>1552</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>612</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="304">
@@ -5279,10 +9029,10 @@
         <v>1819</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>303</v>
+        <v>1553</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>613</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="305">
@@ -5290,10 +9040,10 @@
         <v>2285</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>304</v>
+        <v>1554</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>614</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="306">
@@ -5301,10 +9051,10 @@
         <v>770</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>305</v>
+        <v>1555</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>615</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="307">
@@ -5312,10 +9062,10 @@
         <v>3511</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>306</v>
+        <v>1556</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>616</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="308">
@@ -5323,10 +9073,10 @@
         <v>1661</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>307</v>
+        <v>1557</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>617</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="309">
@@ -5334,10 +9084,10 @@
         <v>988</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>308</v>
+        <v>1558</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>618</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="310">
@@ -5345,10 +9095,10 @@
         <v>2575</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>309</v>
+        <v>1559</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>619</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="311">
@@ -5356,10 +9106,10 @@
         <v>1510</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>310</v>
+        <v>1560</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>620</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="312">
@@ -5367,10 +9117,10 @@
         <v>2022</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>311</v>
+        <v>1561</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>621</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="313">
@@ -5378,10 +9128,10 @@
         <v>2182</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>312</v>
+        <v>1562</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>622</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="314">
@@ -5389,10 +9139,10 @@
         <v>2294</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>313</v>
+        <v>1563</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>623</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="315">
@@ -5400,10 +9150,10 @@
         <v>2442</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>314</v>
+        <v>1564</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>624</v>
+        <v>1874</v>
       </c>
     </row>
   </sheetData>
